--- a/Bags and Trucks/TrackingTrucks.xlsx
+++ b/Bags and Trucks/TrackingTrucks.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18967" windowHeight="7650" activeTab="2"/>
+    <workbookView windowWidth="18967" windowHeight="6996" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Volume" sheetId="1" r:id="rId1"/>
     <sheet name="Delay" sheetId="2" r:id="rId2"/>
     <sheet name="Report" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Volume!$A$1:$T$95</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Delay!$A$1:$E$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Delay!$A$1:$E$59</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="34">
   <si>
     <t>Stops</t>
   </si>
@@ -95,6 +96,9 @@
     <t>Total/Mean</t>
   </si>
   <si>
+    <t xml:space="preserve">Tổng/Trung </t>
+  </si>
+  <si>
     <t>Su khac biet</t>
   </si>
   <si>
@@ -106,23 +110,175 @@
   <si>
     <t>Avg. Độ Delay</t>
   </si>
+  <si>
+    <t>﻿</t>
+  </si>
+  <si>
+    <t>Nguyễn Công Trứ</t>
+  </si>
+  <si>
+    <r>
+      <t>29H - 157.61</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dũng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0916408260</t>
+    </r>
+  </si>
+  <si>
+    <t>Nguyễn Văn Cừ</t>
+  </si>
+  <si>
+    <r>
+      <t>29H - 150.03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trường</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0763021190</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="h:mm:ss\ AM/PM"/>
+  <numFmts count="10">
+    <numFmt numFmtId="176" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="177" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="182" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="183" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -154,9 +310,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,46 +325,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,7 +356,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,7 +387,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,7 +402,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,28 +440,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,13 +455,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFD9EAD3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FF1155CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC27BA0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,13 +479,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,13 +497,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,19 +509,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,19 +533,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,19 +557,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,31 +641,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,29 +653,62 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -515,17 +727,92 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thick">
+        <color rgb="FF000000"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,20 +867,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,193 +899,281 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="35" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="35" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -957,13 +1332,13 @@
             <c:numRef>
               <c:f>Report!$B$9:$B$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1018</c:v>
+                  <c:v>961.518932703105</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="#,##0">
-                  <c:v>955</c:v>
+                <c:pt idx="1">
+                  <c:v>479.328430424837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1053,7 +1428,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1697,7 +2072,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5631180" y="1788795"/>
+        <a:off x="7450455" y="1788795"/>
         <a:ext cx="6486525" cy="1840865"/>
       </xdr:xfrm>
       <a:graphic>
@@ -1972,13 +2347,13 @@
   <dimension ref="A1:E95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C77" sqref="C77:C92"/>
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="6.12745098039216" customWidth="1"/>
-    <col min="2" max="2" width="16.3725490196078" style="15" customWidth="1"/>
+    <col min="2" max="2" width="16.3725490196078" style="29" customWidth="1"/>
     <col min="3" max="3" width="6.75490196078431" customWidth="1"/>
     <col min="4" max="4" width="18.1274509803922" customWidth="1"/>
     <col min="5" max="5" width="10.3725490196078" customWidth="1"/>
@@ -1988,13 +2363,13 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="41" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -2005,16 +2380,16 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="29">
         <v>0.625</v>
       </c>
       <c r="C2">
         <v>440</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="43">
         <v>43826</v>
       </c>
     </row>
@@ -2022,7 +2397,7 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="29">
         <v>0.626388888888889</v>
       </c>
       <c r="C3">
@@ -2031,7 +2406,7 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="43">
         <v>43826</v>
       </c>
     </row>
@@ -2039,7 +2414,7 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="29">
         <v>43826.4743055556</v>
       </c>
       <c r="C4">
@@ -2048,7 +2423,7 @@
       <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="43">
         <v>43826</v>
       </c>
     </row>
@@ -2056,16 +2431,16 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="29">
         <v>0.586805555555556</v>
       </c>
       <c r="C5">
         <v>85</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="43">
         <v>43826</v>
       </c>
     </row>
@@ -2073,16 +2448,16 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="29">
         <v>0.434027777777778</v>
       </c>
       <c r="C6">
         <v>69</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="43">
         <v>43826</v>
       </c>
     </row>
@@ -2090,7 +2465,7 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="29">
         <v>43826.6784722222</v>
       </c>
       <c r="C7">
@@ -2099,7 +2474,7 @@
       <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="43">
         <v>43826</v>
       </c>
     </row>
@@ -2107,7 +2482,7 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="29">
         <v>0.395833333333333</v>
       </c>
       <c r="C8">
@@ -2116,7 +2491,7 @@
       <c r="D8" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="43">
         <v>43826</v>
       </c>
     </row>
@@ -2124,16 +2499,16 @@
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="29">
         <v>0.538194444444444</v>
       </c>
       <c r="C9">
         <v>40</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="43">
         <v>43826</v>
       </c>
     </row>
@@ -2141,16 +2516,16 @@
       <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="29">
         <v>0.475694444444444</v>
       </c>
       <c r="C10">
         <v>23</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="43">
         <v>43826</v>
       </c>
     </row>
@@ -2158,7 +2533,7 @@
       <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="29">
         <v>0.434027777777778</v>
       </c>
       <c r="C11">
@@ -2167,7 +2542,7 @@
       <c r="D11" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="43">
         <v>43826</v>
       </c>
     </row>
@@ -2175,16 +2550,16 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="29">
         <v>0.395833333333333</v>
       </c>
       <c r="C12">
         <v>14</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="43">
         <v>43826</v>
       </c>
     </row>
@@ -2192,7 +2567,7 @@
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="29">
         <v>0.544444444444444</v>
       </c>
       <c r="C13">
@@ -2201,7 +2576,7 @@
       <c r="D13" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="43">
         <v>43826</v>
       </c>
     </row>
@@ -2209,16 +2584,16 @@
       <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="29">
         <v>0.375</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="43">
         <v>43826</v>
       </c>
     </row>
@@ -2226,13 +2601,13 @@
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="29">
         <v>0.415972222222222</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="43">
         <v>43826</v>
       </c>
     </row>
@@ -2240,10 +2615,10 @@
       <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="43">
         <v>43826</v>
       </c>
     </row>
@@ -2251,10 +2626,10 @@
       <c r="A17" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="43">
         <v>43826</v>
       </c>
     </row>
@@ -2262,10 +2637,10 @@
       <c r="A18" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="43">
         <v>43826</v>
       </c>
     </row>
@@ -2273,10 +2648,10 @@
       <c r="A19" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="43">
         <v>43826</v>
       </c>
     </row>
@@ -2284,10 +2659,10 @@
       <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="43">
         <v>43826</v>
       </c>
     </row>
@@ -2295,10 +2670,10 @@
       <c r="A21" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="43">
         <v>43826</v>
       </c>
     </row>
@@ -2306,13 +2681,13 @@
       <c r="A22" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="29">
         <v>0.375694444444444</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="43">
         <v>43826</v>
       </c>
     </row>
@@ -2320,13 +2695,13 @@
       <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="29">
         <v>43826.4173611111</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="43">
         <v>43826</v>
       </c>
     </row>
@@ -2334,13 +2709,13 @@
       <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="29">
         <v>43826.4618055556</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="43">
         <v>43826</v>
       </c>
     </row>
@@ -2348,13 +2723,13 @@
       <c r="A25" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="29">
         <v>43826.5041666667</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="43">
         <v>43826</v>
       </c>
     </row>
@@ -2362,13 +2737,13 @@
       <c r="A26" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="29">
         <v>0.522222222222222</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="43">
         <v>43826</v>
       </c>
     </row>
@@ -2376,13 +2751,13 @@
       <c r="A27" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="29">
         <v>0.577777777777778</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="43">
         <v>43826</v>
       </c>
     </row>
@@ -2390,13 +2765,13 @@
       <c r="A28" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="29">
         <v>43826.5854166667</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="43">
         <v>43826</v>
       </c>
     </row>
@@ -2404,13 +2779,13 @@
       <c r="A29" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="29">
         <v>43826.6506944444</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="43">
         <v>43826</v>
       </c>
     </row>
@@ -2418,13 +2793,13 @@
       <c r="A30" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="29">
         <v>0.375</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="43">
         <v>43827</v>
       </c>
     </row>
@@ -2432,16 +2807,16 @@
       <c r="A31" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="29">
         <v>0.394444444444444</v>
       </c>
       <c r="C31">
         <v>204</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="43">
         <v>43827</v>
       </c>
     </row>
@@ -2449,13 +2824,13 @@
       <c r="A32" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="29">
         <v>0.406944444444444</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="43">
         <v>43827</v>
       </c>
     </row>
@@ -2463,16 +2838,16 @@
       <c r="A33" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B33" s="29">
         <v>0.434722222222222</v>
       </c>
       <c r="C33">
         <v>167</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="43">
         <v>43827</v>
       </c>
     </row>
@@ -2480,13 +2855,13 @@
       <c r="A34" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="29">
         <v>0.460416666666667</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="43">
         <v>43827</v>
       </c>
     </row>
@@ -2494,13 +2869,13 @@
       <c r="A35" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B35" s="29">
         <v>0.475694444444444</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="43">
         <v>43827</v>
       </c>
     </row>
@@ -2508,13 +2883,13 @@
       <c r="A36" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="15">
+      <c r="B36" s="29">
         <v>0.488194444444444</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="43">
         <v>43827</v>
       </c>
     </row>
@@ -2522,13 +2897,13 @@
       <c r="A37" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="15">
+      <c r="B37" s="29">
         <v>0.5375</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="43">
         <v>43827</v>
       </c>
     </row>
@@ -2536,11 +2911,10 @@
       <c r="A38" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E38" s="43">
         <v>43827</v>
       </c>
     </row>
@@ -2548,16 +2922,16 @@
       <c r="A39" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="15">
+      <c r="B39" s="29">
         <v>0.582638888888889</v>
       </c>
       <c r="C39">
         <v>242</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E39" s="43">
         <v>43827</v>
       </c>
     </row>
@@ -2565,13 +2939,13 @@
       <c r="A40" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="15">
+      <c r="B40" s="29">
         <v>0.0979166666666667</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E40" s="43">
         <v>43827</v>
       </c>
     </row>
@@ -2579,16 +2953,16 @@
       <c r="A41" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="15">
+      <c r="B41" s="29">
         <v>0.632638888888889</v>
       </c>
       <c r="C41">
         <v>257</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E41" s="43">
         <v>43827</v>
       </c>
     </row>
@@ -2596,11 +2970,10 @@
       <c r="A42" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="15"/>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="43">
         <v>43827</v>
       </c>
     </row>
@@ -2608,13 +2981,13 @@
       <c r="A43" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="15">
+      <c r="B43" s="29">
         <v>0.375694444444444</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E43" s="43">
         <v>43827</v>
       </c>
     </row>
@@ -2622,7 +2995,7 @@
       <c r="A44" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="15">
+      <c r="B44" s="29">
         <v>0.399305555555556</v>
       </c>
       <c r="C44">
@@ -2631,7 +3004,7 @@
       <c r="D44" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E44" s="43">
         <v>43827</v>
       </c>
     </row>
@@ -2639,13 +3012,13 @@
       <c r="A45" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="15">
+      <c r="B45" s="29">
         <v>0.421527777777778</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E45" s="43">
         <v>43827</v>
       </c>
     </row>
@@ -2653,7 +3026,7 @@
       <c r="A46" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="15">
+      <c r="B46" s="29">
         <v>0.447222222222222</v>
       </c>
       <c r="C46">
@@ -2662,7 +3035,7 @@
       <c r="D46" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="18">
+      <c r="E46" s="43">
         <v>43827</v>
       </c>
     </row>
@@ -2670,13 +3043,13 @@
       <c r="A47" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="15">
+      <c r="B47" s="29">
         <v>0.459722222222222</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="18">
+      <c r="E47" s="43">
         <v>43827</v>
       </c>
     </row>
@@ -2684,7 +3057,7 @@
       <c r="A48" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="15">
+      <c r="B48" s="29">
         <v>0.480555555555556</v>
       </c>
       <c r="C48">
@@ -2693,7 +3066,7 @@
       <c r="D48" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="18">
+      <c r="E48" s="43">
         <v>43827</v>
       </c>
     </row>
@@ -2701,13 +3074,13 @@
       <c r="A49" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="15">
+      <c r="B49" s="29">
         <v>0.502083333333333</v>
       </c>
       <c r="D49" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E49" s="43">
         <v>43827</v>
       </c>
     </row>
@@ -2715,13 +3088,13 @@
       <c r="A50" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="15">
+      <c r="B50" s="29">
         <v>0.522916666666667</v>
       </c>
       <c r="D50" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="18">
+      <c r="E50" s="43">
         <v>43827</v>
       </c>
     </row>
@@ -2729,13 +3102,13 @@
       <c r="A51" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="15">
+      <c r="B51" s="29">
         <v>0.540277777777778</v>
       </c>
       <c r="D51" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="18">
+      <c r="E51" s="43">
         <v>43827</v>
       </c>
     </row>
@@ -2743,7 +3116,7 @@
       <c r="A52" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="15">
+      <c r="B52" s="29">
         <v>0.576388888888889</v>
       </c>
       <c r="C52">
@@ -2752,7 +3125,7 @@
       <c r="D52" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="18">
+      <c r="E52" s="43">
         <v>43827</v>
       </c>
     </row>
@@ -2760,13 +3133,13 @@
       <c r="A53" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="15">
+      <c r="B53" s="29">
         <v>0.599305555555556</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
       </c>
-      <c r="E53" s="18">
+      <c r="E53" s="43">
         <v>43827</v>
       </c>
     </row>
@@ -2774,7 +3147,7 @@
       <c r="A54" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="15">
+      <c r="B54" s="29">
         <v>0.626388888888889</v>
       </c>
       <c r="C54">
@@ -2783,7 +3156,7 @@
       <c r="D54" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="18">
+      <c r="E54" s="43">
         <v>43827</v>
       </c>
     </row>
@@ -2791,13 +3164,13 @@
       <c r="A55" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="15">
+      <c r="B55" s="29">
         <v>0.648611111111111</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
       </c>
-      <c r="E55" s="18">
+      <c r="E55" s="43">
         <v>43827</v>
       </c>
     </row>
@@ -2805,11 +3178,10 @@
       <c r="A56" t="s">
         <v>9</v>
       </c>
-      <c r="B56" s="15"/>
       <c r="D56" t="s">
         <v>8</v>
       </c>
-      <c r="E56" s="18">
+      <c r="E56" s="43">
         <v>43827</v>
       </c>
     </row>
@@ -2817,11 +3189,10 @@
       <c r="A57" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="15"/>
       <c r="D57" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="18">
+      <c r="E57" s="43">
         <v>43827</v>
       </c>
     </row>
@@ -2829,11 +3200,10 @@
       <c r="A58" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="15"/>
       <c r="D58" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="18">
+      <c r="E58" s="43">
         <v>43827</v>
       </c>
     </row>
@@ -2841,11 +3211,10 @@
       <c r="A59" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="15"/>
       <c r="D59" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="18">
+      <c r="E59" s="43">
         <v>43827</v>
       </c>
     </row>
@@ -2853,11 +3222,10 @@
       <c r="A60" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="15"/>
       <c r="D60" t="s">
         <v>8</v>
       </c>
-      <c r="E60" s="18">
+      <c r="E60" s="43">
         <v>43827</v>
       </c>
     </row>
@@ -2865,11 +3233,10 @@
       <c r="A61" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="15"/>
       <c r="D61" t="s">
         <v>8</v>
       </c>
-      <c r="E61" s="18">
+      <c r="E61" s="43">
         <v>43827</v>
       </c>
     </row>
@@ -2877,14 +3244,13 @@
       <c r="A62" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="15">
+      <c r="B62" s="29">
         <v>0.375</v>
       </c>
-      <c r="C62"/>
-      <c r="D62" s="17" t="s">
+      <c r="D62" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E62" s="18">
+      <c r="E62" s="43">
         <v>43829</v>
       </c>
     </row>
@@ -2892,14 +3258,13 @@
       <c r="A63" t="s">
         <v>5</v>
       </c>
-      <c r="B63" s="15">
+      <c r="B63" s="29">
         <v>0.390972222222222</v>
       </c>
-      <c r="C63"/>
-      <c r="D63" s="17" t="s">
+      <c r="D63" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E63" s="18">
+      <c r="E63" s="43">
         <v>43829</v>
       </c>
     </row>
@@ -2907,14 +3272,13 @@
       <c r="A64" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="15">
+      <c r="B64" s="29">
         <v>0.413888888888889</v>
       </c>
-      <c r="C64"/>
-      <c r="D64" s="17" t="s">
+      <c r="D64" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E64" s="18">
+      <c r="E64" s="43">
         <v>43829</v>
       </c>
     </row>
@@ -2922,16 +3286,16 @@
       <c r="A65" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="15">
+      <c r="B65" s="29">
         <v>0.454166666666667</v>
       </c>
       <c r="C65">
         <v>192</v>
       </c>
-      <c r="D65" s="17" t="s">
+      <c r="D65" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E65" s="18">
+      <c r="E65" s="43">
         <v>43829</v>
       </c>
     </row>
@@ -2939,14 +3303,13 @@
       <c r="A66" t="s">
         <v>10</v>
       </c>
-      <c r="B66" s="15">
+      <c r="B66" s="29">
         <v>0.473611111111111</v>
       </c>
-      <c r="C66"/>
-      <c r="D66" s="17" t="s">
+      <c r="D66" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E66" s="18">
+      <c r="E66" s="43">
         <v>43829</v>
       </c>
     </row>
@@ -2954,16 +3317,16 @@
       <c r="A67" t="s">
         <v>5</v>
       </c>
-      <c r="B67" s="15">
+      <c r="B67" s="29">
         <v>0.488194444444444</v>
       </c>
       <c r="C67">
         <v>231</v>
       </c>
-      <c r="D67" s="17" t="s">
+      <c r="D67" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E67" s="18">
+      <c r="E67" s="43">
         <v>43829</v>
       </c>
     </row>
@@ -2971,14 +3334,13 @@
       <c r="A68" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="15">
+      <c r="B68" s="29">
         <v>0.502083333333333</v>
       </c>
-      <c r="C68"/>
-      <c r="D68" s="17" t="s">
+      <c r="D68" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E68" s="18">
+      <c r="E68" s="43">
         <v>43829</v>
       </c>
     </row>
@@ -2986,14 +3348,13 @@
       <c r="A69" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="15">
+      <c r="B69" s="29">
         <v>0.0444444444444444</v>
       </c>
-      <c r="C69"/>
-      <c r="D69" s="17" t="s">
+      <c r="D69" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E69" s="18">
+      <c r="E69" s="43">
         <v>43829</v>
       </c>
     </row>
@@ -3001,12 +3362,10 @@
       <c r="A70" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="15"/>
-      <c r="C70"/>
-      <c r="D70" s="17" t="s">
+      <c r="D70" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="18">
+      <c r="E70" s="43">
         <v>43829</v>
       </c>
     </row>
@@ -3014,14 +3373,13 @@
       <c r="A71" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="15">
+      <c r="B71" s="29">
         <v>0.473611111111111</v>
       </c>
-      <c r="C71"/>
-      <c r="D71" s="17" t="s">
+      <c r="D71" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="18">
+      <c r="E71" s="43">
         <v>43829</v>
       </c>
     </row>
@@ -3029,14 +3387,13 @@
       <c r="A72" t="s">
         <v>5</v>
       </c>
-      <c r="B72" s="15"/>
       <c r="C72">
         <v>168</v>
       </c>
-      <c r="D72" s="17" t="s">
+      <c r="D72" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E72" s="18">
+      <c r="E72" s="43">
         <v>43829</v>
       </c>
     </row>
@@ -3044,14 +3401,13 @@
       <c r="A73" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="15">
+      <c r="B73" s="29">
         <v>0.605555555555556</v>
       </c>
-      <c r="C73"/>
-      <c r="D73" s="17" t="s">
+      <c r="D73" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E73" s="18">
+      <c r="E73" s="43">
         <v>43829</v>
       </c>
     </row>
@@ -3059,16 +3415,16 @@
       <c r="A74" t="s">
         <v>5</v>
       </c>
-      <c r="B74" s="15">
+      <c r="B74" s="29">
         <v>0.636805555555556</v>
       </c>
       <c r="C74">
         <v>427</v>
       </c>
-      <c r="D74" s="17" t="s">
+      <c r="D74" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="18">
+      <c r="E74" s="43">
         <v>43829</v>
       </c>
     </row>
@@ -3076,12 +3432,10 @@
       <c r="A75" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="15"/>
-      <c r="C75"/>
-      <c r="D75" s="17" t="s">
+      <c r="D75" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E75" s="18">
+      <c r="E75" s="43">
         <v>43829</v>
       </c>
     </row>
@@ -3089,14 +3443,13 @@
       <c r="A76" t="s">
         <v>10</v>
       </c>
-      <c r="B76" s="15">
+      <c r="B76" s="29">
         <v>0.668055555555556</v>
       </c>
-      <c r="C76"/>
-      <c r="D76" s="17" t="s">
+      <c r="D76" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E76" s="18">
+      <c r="E76" s="43">
         <v>43829</v>
       </c>
     </row>
@@ -3104,14 +3457,13 @@
       <c r="A77" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="15">
+      <c r="B77" s="29">
         <v>0.375</v>
       </c>
-      <c r="C77"/>
       <c r="D77" t="s">
         <v>8</v>
       </c>
-      <c r="E77" s="18">
+      <c r="E77" s="43">
         <v>43829</v>
       </c>
     </row>
@@ -3119,14 +3471,13 @@
       <c r="A78" t="s">
         <v>7</v>
       </c>
-      <c r="B78" s="15">
+      <c r="B78" s="29">
         <v>0.398611111111111</v>
       </c>
-      <c r="C78"/>
       <c r="D78" t="s">
         <v>8</v>
       </c>
-      <c r="E78" s="18">
+      <c r="E78" s="43">
         <v>43829</v>
       </c>
     </row>
@@ -3134,14 +3485,13 @@
       <c r="A79" t="s">
         <v>10</v>
       </c>
-      <c r="B79" s="15">
+      <c r="B79" s="29">
         <v>0.406944444444444</v>
       </c>
-      <c r="C79"/>
       <c r="D79" t="s">
         <v>8</v>
       </c>
-      <c r="E79" s="18">
+      <c r="E79" s="43">
         <v>43829</v>
       </c>
     </row>
@@ -3149,7 +3499,7 @@
       <c r="A80" t="s">
         <v>7</v>
       </c>
-      <c r="B80" s="15">
+      <c r="B80" s="29">
         <v>0.441666666666667</v>
       </c>
       <c r="C80">
@@ -3158,7 +3508,7 @@
       <c r="D80" t="s">
         <v>8</v>
       </c>
-      <c r="E80" s="18">
+      <c r="E80" s="43">
         <v>43829</v>
       </c>
     </row>
@@ -3166,14 +3516,13 @@
       <c r="A81" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="15">
+      <c r="B81" s="29">
         <v>0.464583333333333</v>
       </c>
-      <c r="C81"/>
       <c r="D81" t="s">
         <v>8</v>
       </c>
-      <c r="E81" s="18">
+      <c r="E81" s="43">
         <v>43829</v>
       </c>
     </row>
@@ -3181,7 +3530,7 @@
       <c r="A82" t="s">
         <v>7</v>
       </c>
-      <c r="B82" s="15">
+      <c r="B82" s="29">
         <v>0.474305555555556</v>
       </c>
       <c r="C82">
@@ -3190,7 +3539,7 @@
       <c r="D82" t="s">
         <v>8</v>
       </c>
-      <c r="E82" s="18">
+      <c r="E82" s="43">
         <v>43829</v>
       </c>
     </row>
@@ -3198,14 +3547,13 @@
       <c r="A83" t="s">
         <v>10</v>
       </c>
-      <c r="B83" s="15">
+      <c r="B83" s="29">
         <v>0.497222222222222</v>
       </c>
-      <c r="C83"/>
       <c r="D83" t="s">
         <v>8</v>
       </c>
-      <c r="E83" s="18">
+      <c r="E83" s="43">
         <v>43829</v>
       </c>
     </row>
@@ -3213,14 +3561,13 @@
       <c r="A84" t="s">
         <v>7</v>
       </c>
-      <c r="B84" s="15">
+      <c r="B84" s="29">
         <v>0.523611111111111</v>
       </c>
-      <c r="C84"/>
       <c r="D84" t="s">
         <v>8</v>
       </c>
-      <c r="E84" s="18">
+      <c r="E84" s="43">
         <v>43829</v>
       </c>
     </row>
@@ -3228,14 +3575,13 @@
       <c r="A85" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="15">
+      <c r="B85" s="29">
         <v>0.55</v>
       </c>
-      <c r="C85"/>
       <c r="D85" t="s">
         <v>8</v>
       </c>
-      <c r="E85" s="18">
+      <c r="E85" s="43">
         <v>43829</v>
       </c>
     </row>
@@ -3243,7 +3589,7 @@
       <c r="A86" t="s">
         <v>7</v>
       </c>
-      <c r="B86" s="15">
+      <c r="B86" s="29">
         <v>0.586111111111111</v>
       </c>
       <c r="C86">
@@ -3252,7 +3598,7 @@
       <c r="D86" t="s">
         <v>8</v>
       </c>
-      <c r="E86" s="18">
+      <c r="E86" s="43">
         <v>43829</v>
       </c>
     </row>
@@ -3260,14 +3606,13 @@
       <c r="A87" t="s">
         <v>10</v>
       </c>
-      <c r="B87" s="15">
+      <c r="B87" s="29">
         <v>0.601388888888889</v>
       </c>
-      <c r="C87"/>
       <c r="D87" t="s">
         <v>8</v>
       </c>
-      <c r="E87" s="18">
+      <c r="E87" s="43">
         <v>43829</v>
       </c>
     </row>
@@ -3275,7 +3620,7 @@
       <c r="A88" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="15">
+      <c r="B88" s="29">
         <v>0.627777777777778</v>
       </c>
       <c r="C88">
@@ -3284,7 +3629,7 @@
       <c r="D88" t="s">
         <v>8</v>
       </c>
-      <c r="E88" s="18">
+      <c r="E88" s="43">
         <v>43829</v>
       </c>
     </row>
@@ -3292,14 +3637,13 @@
       <c r="A89" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="15">
+      <c r="B89" s="29">
         <v>0.648611111111111</v>
       </c>
-      <c r="C89"/>
       <c r="D89" t="s">
         <v>8</v>
       </c>
-      <c r="E89" s="18">
+      <c r="E89" s="43">
         <v>43829</v>
       </c>
     </row>
@@ -3307,14 +3651,13 @@
       <c r="A90" t="s">
         <v>9</v>
       </c>
-      <c r="B90" s="15">
+      <c r="B90" s="29">
         <v>0.683333333333333</v>
       </c>
-      <c r="C90"/>
       <c r="D90" t="s">
         <v>8</v>
       </c>
-      <c r="E90" s="18">
+      <c r="E90" s="43">
         <v>43829</v>
       </c>
     </row>
@@ -3322,14 +3665,13 @@
       <c r="A91" t="s">
         <v>10</v>
       </c>
-      <c r="B91" s="15">
+      <c r="B91" s="29">
         <v>0.709722222222222</v>
       </c>
-      <c r="C91"/>
       <c r="D91" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="18">
+      <c r="E91" s="43">
         <v>43829</v>
       </c>
     </row>
@@ -3337,12 +3679,10 @@
       <c r="A92" t="s">
         <v>9</v>
       </c>
-      <c r="B92" s="15"/>
-      <c r="C92"/>
       <c r="D92" t="s">
         <v>8</v>
       </c>
-      <c r="E92" s="18">
+      <c r="E92" s="43">
         <v>43829</v>
       </c>
     </row>
@@ -3350,12 +3690,10 @@
       <c r="A93" t="s">
         <v>10</v>
       </c>
-      <c r="B93" s="15"/>
-      <c r="C93"/>
       <c r="D93" t="s">
         <v>8</v>
       </c>
-      <c r="E93" s="18">
+      <c r="E93" s="43">
         <v>43829</v>
       </c>
     </row>
@@ -3363,12 +3701,10 @@
       <c r="A94" t="s">
         <v>9</v>
       </c>
-      <c r="B94" s="15"/>
-      <c r="C94"/>
       <c r="D94" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="18">
+      <c r="E94" s="43">
         <v>43829</v>
       </c>
     </row>
@@ -3376,12 +3712,10 @@
       <c r="A95" t="s">
         <v>10</v>
       </c>
-      <c r="B95" s="15"/>
-      <c r="C95"/>
       <c r="D95" t="s">
         <v>8</v>
       </c>
-      <c r="E95" s="18">
+      <c r="E95" s="43">
         <v>43829</v>
       </c>
     </row>
@@ -3410,589 +3744,1045 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23:E31"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33:E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.6274509803922" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.2549019607843" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.3725490196078" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.8725490196078" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.12745098039216" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="21.6274509803922" style="21" customWidth="1"/>
+    <col min="2" max="2" width="16.2549019607843" style="21" customWidth="1"/>
+    <col min="3" max="3" width="20.3725490196078" style="21" customWidth="1"/>
+    <col min="4" max="4" width="19.8725490196078" style="22" customWidth="1"/>
+    <col min="5" max="5" width="8.12745098039216" style="21" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.25" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" ht="26.2" hidden="1" spans="1:5">
-      <c r="A2" s="3">
+      <c r="A2" s="23">
         <v>43826.7475578704</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="25">
         <v>0.551388888888889</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="37">
         <v>14</v>
       </c>
     </row>
     <row r="3" ht="26.2" hidden="1" spans="1:5">
-      <c r="A3" s="3">
+      <c r="A3" s="23">
         <v>43826.7197106481</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="26">
         <v>0.399305555555556</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="4" ht="26.2" hidden="1" spans="1:9">
-      <c r="A4" s="6">
+      <c r="A4" s="27">
         <v>43827.7084259259</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="28">
         <v>0.399305555555556</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="28"/>
       <c r="I4"/>
     </row>
     <row r="5" ht="26.2" hidden="1" spans="1:5">
-      <c r="A5" s="3">
+      <c r="A5" s="23">
         <v>43826.7488657407</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="25">
         <v>0.5875</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="6" ht="26.2" hidden="1" spans="1:5">
-      <c r="A6" s="3">
+      <c r="A6" s="23">
         <v>43826.7193981481</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="25">
         <v>0.395833333333333</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="7" ht="26.2" hidden="1" spans="1:9">
-      <c r="A7" s="6">
+      <c r="A7" s="27">
         <v>43827.7092939815</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="28">
         <v>0.447222222222222</v>
       </c>
       <c r="E7">
         <v>-6</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="28"/>
       <c r="I7"/>
     </row>
     <row r="8" ht="26.2" hidden="1" spans="1:5">
-      <c r="A8" s="3">
+      <c r="A8" s="23">
         <v>43826.7201736111</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="25">
         <v>0.434027777777778</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="9" ht="26.2" hidden="1" spans="1:5">
-      <c r="A9" s="3">
+      <c r="A9" s="23">
         <v>43826.7454050926</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="25">
         <v>0.475694444444444</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="10" ht="26.2" hidden="1" spans="1:5">
-      <c r="A10" s="3">
+      <c r="A10" s="23">
         <v>43826.7491203704</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="25">
         <v>0.624305555555556</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="37">
         <v>-1</v>
       </c>
     </row>
     <row r="11" ht="26.2" hidden="1" spans="1:5">
-      <c r="A11" s="3">
+      <c r="A11" s="23">
         <v>43826.7449189815</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="26">
         <v>0.449305555555556</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="38">
         <v>-3</v>
       </c>
     </row>
     <row r="12" ht="26.2" hidden="1" spans="1:5">
-      <c r="A12" s="3">
+      <c r="A12" s="23">
         <v>43826.7468287037</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="26">
         <v>0.522222222222222</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="38">
         <v>2</v>
       </c>
     </row>
     <row r="13" ht="26.2" hidden="1" spans="1:9">
-      <c r="A13" s="6">
+      <c r="A13" s="27">
         <v>43827.7109953704</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="28">
         <v>0.522916666666667</v>
       </c>
       <c r="E13">
         <v>3</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="28"/>
       <c r="I13"/>
     </row>
     <row r="14" ht="26.2" hidden="1" spans="1:9">
-      <c r="A14" s="6">
+      <c r="A14" s="27">
         <v>43827.708900463</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="29">
         <v>0.434722222222222</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="28"/>
       <c r="I14"/>
     </row>
     <row r="15" ht="26.2" hidden="1" spans="1:9">
-      <c r="A15" s="6">
+      <c r="A15" s="27">
         <v>43827.7113773148</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="28">
         <v>0.576388888888889</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="28"/>
       <c r="I15"/>
     </row>
     <row r="16" ht="26.2" hidden="1" spans="1:9">
-      <c r="A16" s="6">
+      <c r="A16" s="27">
         <v>43827.7098263889</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="29">
         <v>0.475694444444444</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="H16" s="7"/>
+      <c r="H16" s="28"/>
       <c r="I16"/>
     </row>
     <row r="17" ht="26.2" hidden="1" spans="1:5">
-      <c r="A17" s="3">
+      <c r="A17" s="23">
         <v>43826.7483912037</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="26">
         <v>0.577777777777778</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="38">
         <v>2</v>
       </c>
     </row>
     <row r="18" ht="26.2" hidden="1" spans="1:9">
-      <c r="A18" s="6">
+      <c r="A18" s="27">
         <v>43827.7139814815</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="29">
         <v>0.5375</v>
       </c>
       <c r="E18">
         <v>-6</v>
       </c>
-      <c r="H18" s="7"/>
+      <c r="H18" s="28"/>
       <c r="I18"/>
     </row>
     <row r="19" ht="26.2" hidden="1" spans="1:5">
-      <c r="A19" s="3">
+      <c r="A19" s="23">
         <v>43826.7483912037</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="26">
         <v>0.626388888888889</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="38">
         <v>-8</v>
       </c>
     </row>
     <row r="20" ht="26.2" hidden="1" spans="1:9">
-      <c r="A20" s="6">
+      <c r="A20" s="27">
         <v>43827.7117592593</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="29">
         <v>0.582638888888889</v>
       </c>
       <c r="E20">
         <v>-1</v>
       </c>
-      <c r="H20" s="7"/>
+      <c r="H20" s="28"/>
       <c r="I20"/>
     </row>
     <row r="21" ht="26.2" hidden="1" spans="1:9">
-      <c r="A21" s="6">
+      <c r="A21" s="27">
         <v>43827.7119791667</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="29">
         <v>0.632638888888889</v>
       </c>
       <c r="E21">
         <v>11</v>
       </c>
-      <c r="H21" s="7"/>
+      <c r="H21" s="28"/>
       <c r="I21"/>
     </row>
     <row r="22" ht="26.95" hidden="1" spans="1:5">
-      <c r="A22" s="6">
+      <c r="A22" s="27">
         <v>43827.7113773148</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="30">
         <v>0.629861111111111</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="21">
         <v>-3</v>
       </c>
     </row>
-    <row r="23" ht="26.95" spans="1:5">
-      <c r="A23" s="9">
+    <row r="23" ht="26.95" hidden="1" spans="1:5">
+      <c r="A23" s="31">
         <v>43829.7984606481</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="33">
         <v>0.395833333333333</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="24" ht="26.95" hidden="1" spans="1:5">
-      <c r="A24" s="9">
+      <c r="A24" s="31">
         <v>43829.7987152778</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="34">
         <v>0.399305555555556</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="26.95" spans="1:5">
-      <c r="A25" s="9">
+    <row r="25" ht="26.95" hidden="1" spans="1:5">
+      <c r="A25" s="31">
         <v>43829.7989583333</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="33">
         <v>0.433333333333333</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="39">
         <v>-1</v>
       </c>
     </row>
     <row r="26" ht="26.95" hidden="1" spans="1:5">
-      <c r="A26" s="9">
+      <c r="A26" s="31">
         <v>43829.7991319444</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="34">
         <v>0.45</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="39">
         <v>-2</v>
       </c>
     </row>
-    <row r="27" ht="26.95" spans="1:5">
-      <c r="A27" s="9">
+    <row r="27" ht="26.95" hidden="1" spans="1:5">
+      <c r="A27" s="31">
         <v>43829.7993055556</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="33">
         <v>0.475694444444444</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="26.95" spans="1:5">
-      <c r="A28" s="9">
+    <row r="28" ht="26.95" hidden="1" spans="1:5">
+      <c r="A28" s="31">
         <v>43829.7996180556</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="33">
         <v>0.5375</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="39">
         <v>-6</v>
       </c>
     </row>
     <row r="29" ht="26.95" hidden="1" spans="1:5">
-      <c r="A29" s="9">
+      <c r="A29" s="31">
         <v>43829.7997916667</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="34">
         <v>0.580555555555556</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="39">
         <v>6</v>
       </c>
     </row>
-    <row r="30" ht="26.95" spans="1:5">
-      <c r="A30" s="9">
+    <row r="30" ht="26.95" hidden="1" spans="1:5">
+      <c r="A30" s="31">
         <v>43829.8000347222</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="33">
         <v>0.588194444444444</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="39">
         <v>7</v>
       </c>
     </row>
-    <row r="31" ht="26.95" spans="1:5">
-      <c r="A31" s="9">
+    <row r="31" ht="15.25" hidden="1" spans="1:5">
+      <c r="A31" s="31">
         <v>43829.8002199074</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="C31" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="33">
+        <v>0.626388888888889</v>
+      </c>
+      <c r="E31" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" ht="26.95" hidden="1" spans="1:5">
+      <c r="A32" s="31">
+        <v>43829.8026736111</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="34">
+        <v>0.635416666666667</v>
+      </c>
+      <c r="E32" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" ht="26.95" spans="1:5">
+      <c r="A33" s="35">
+        <v>43830.3924537037</v>
+      </c>
+      <c r="B33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C33" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="11">
-        <v>0.626388888888889</v>
-      </c>
-      <c r="E31" s="14">
+      <c r="D33" s="36">
+        <v>43830.3924537037</v>
+      </c>
+      <c r="E33" s="40">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="34" ht="26.95" spans="1:5">
+      <c r="A34" s="35">
+        <v>43830.4119675926</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="36">
+        <v>43830.4119675926</v>
+      </c>
+      <c r="E34" s="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" ht="26.95" spans="1:5">
+      <c r="A35" s="35">
+        <v>43830.4389583333</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="36">
+        <v>43830.4389583333</v>
+      </c>
+      <c r="E35" s="40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" ht="26.95" spans="1:5">
+      <c r="A36" s="35">
+        <v>43830.453587963</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="36">
+        <v>43830.453587963</v>
+      </c>
+      <c r="E36" s="40">
         <v>2</v>
       </c>
     </row>
-    <row r="32" ht="26.95" hidden="1" spans="1:5">
-      <c r="A32" s="9">
-        <v>43829.8026736111</v>
-      </c>
-      <c r="B32" s="4" t="s">
+    <row r="37" ht="26.95" spans="1:5">
+      <c r="A37" s="35">
+        <v>43830.4764467593</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="36">
+        <v>43830.4764467593</v>
+      </c>
+      <c r="E37" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" ht="26.95" spans="1:5">
+      <c r="A38" s="35">
+        <v>43830.4933680556</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="36">
+        <v>43830.4933680556</v>
+      </c>
+      <c r="E38" s="40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" ht="26.95" spans="1:5">
+      <c r="A39" s="35">
+        <v>43830.5429513889</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="36">
+        <v>43830.5429513889</v>
+      </c>
+      <c r="E39" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" ht="26.95" spans="1:5">
+      <c r="A40" s="35">
+        <v>43830.5533217593</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="36">
+        <v>43830.5533217593</v>
+      </c>
+      <c r="E40" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" ht="26.95" spans="1:5">
+      <c r="A41" s="35">
+        <v>43830.571724537</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="36">
+        <v>43830.571724537</v>
+      </c>
+      <c r="E41" s="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" ht="26.95" spans="1:5">
+      <c r="A42" s="35">
+        <v>43830.5893055556</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="36">
+        <v>43830.5893055556</v>
+      </c>
+      <c r="E42" s="40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" ht="26.95" spans="1:5">
+      <c r="A43" s="35">
+        <v>43830.6083564815</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="36">
+        <v>43830.6083564815</v>
+      </c>
+      <c r="E43" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" ht="26.95" spans="1:5">
+      <c r="A44" s="35">
+        <v>43830.6266550926</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="36">
+        <v>43830.6266550926</v>
+      </c>
+      <c r="E44" s="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" ht="26.95" spans="1:5">
+      <c r="A45" s="35">
+        <v>43830.6544328704</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="36">
+        <v>43830.6544328704</v>
+      </c>
+      <c r="E45" s="40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" ht="26.95" hidden="1" spans="1:5">
+      <c r="A46" s="35">
+        <v>43830.4050462963</v>
+      </c>
+      <c r="B46" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C46" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="11">
-        <v>0.635416666666667</v>
-      </c>
-      <c r="E32" s="14">
+      <c r="D46" s="36">
+        <v>43830.4050462963</v>
+      </c>
+      <c r="E46" s="40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" ht="26.95" hidden="1" spans="1:5">
+      <c r="A47" s="35">
+        <v>43830.4287731481</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="36">
+        <v>43830.4287731481</v>
+      </c>
+      <c r="E47" s="40">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" ht="26.95" hidden="1" spans="1:5">
+      <c r="A48" s="35">
+        <v>43830.4606597222</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="36">
+        <v>43830.4606597222</v>
+      </c>
+      <c r="E48" s="40">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" ht="26.95" hidden="1" spans="1:5">
+      <c r="A49" s="35">
+        <v>43830.4819791667</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="36">
+        <v>43830.4819791667</v>
+      </c>
+      <c r="E49" s="40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" ht="26.95" hidden="1" spans="1:5">
+      <c r="A50" s="35">
+        <v>43830.5316898148</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="36">
+        <v>43830.5316898148</v>
+      </c>
+      <c r="E50" s="40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" ht="26.95" hidden="1" spans="1:5">
+      <c r="A51" s="35">
+        <v>43830.5623148148</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="36">
+        <v>43830.5623148148</v>
+      </c>
+      <c r="E51" s="40">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" ht="26.95" hidden="1" spans="1:5">
+      <c r="A52" s="35">
+        <v>43830.5897800926</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="36">
+        <v>43830.5897800926</v>
+      </c>
+      <c r="E52" s="40">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" ht="26.95" hidden="1" spans="1:5">
+      <c r="A53" s="35">
+        <v>43830.6128356481</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="36">
+        <v>43830.6128356481</v>
+      </c>
+      <c r="E53" s="40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" ht="26.95" hidden="1" spans="1:5">
+      <c r="A54" s="35">
+        <v>43830.6307523148</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="36">
+        <v>43830.6307523148</v>
+      </c>
+      <c r="E54" s="40">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="55" ht="26.95" hidden="1" spans="1:5">
+      <c r="A55" s="35">
+        <v>43830.6602662037</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="36">
+        <v>43830.6602662037</v>
+      </c>
+      <c r="E55" s="40">
         <v>5</v>
       </c>
     </row>
+    <row r="56" ht="26.95" hidden="1" spans="1:5">
+      <c r="A56" s="35">
+        <v>43830.6799768519</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="36">
+        <v>43830.6799768519</v>
+      </c>
+      <c r="E56" s="40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" ht="26.95" hidden="1" spans="1:5">
+      <c r="A57" s="35">
+        <v>43830.6922569444</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="36">
+        <v>43830.6922569444</v>
+      </c>
+      <c r="E57" s="40">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" ht="26.95" hidden="1" spans="1:5">
+      <c r="A58" s="35">
+        <v>43830.7236342593</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="36">
+        <v>43830.7236342593</v>
+      </c>
+      <c r="E58" s="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" ht="26.95" hidden="1" spans="1:5">
+      <c r="A59" s="35">
+        <v>43830.7426736111</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="36">
+        <v>43830.7426736111</v>
+      </c>
+      <c r="E59" s="40">
+        <v>-9</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E32">
+  <autoFilter ref="A1:E59">
     <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2019" month="12" day="30" dateTimeGrouping="day"/>
+        <dateGroupItem year="2019" month="12" day="31" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
@@ -4014,22 +4804,22 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="A7" sqref="A7:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="19.2549019607843" customWidth="1"/>
+    <col min="1" max="1" width="34.5" customWidth="1"/>
+    <col min="2" max="2" width="19.2549019607843" style="20" customWidth="1"/>
     <col min="3" max="3" width="22.1274509803922" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="4" max="4" width="30.0882352941176" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C1" t="s">
@@ -4043,7 +4833,7 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="20">
         <v>671</v>
       </c>
       <c r="C2">
@@ -4057,7 +4847,7 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="20">
         <v>607</v>
       </c>
       <c r="C3">
@@ -4071,7 +4861,7 @@
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="20">
         <f>SUM(B2:B3)</f>
         <v>1278</v>
       </c>
@@ -4088,7 +4878,7 @@
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
@@ -4102,100 +4892,88 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>1018</v>
+      <c r="B9" s="20">
+        <v>961.518932703105</v>
       </c>
       <c r="C9">
-        <v>0.3333</v>
+        <v>-2.38</v>
       </c>
       <c r="D9">
         <f>C9/15</f>
-        <v>0.02222</v>
+        <v>-0.158666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <v>955</v>
+      <c r="B10" s="20">
+        <v>479.328430424837</v>
       </c>
       <c r="C10">
-        <v>2.25</v>
+        <v>4.61</v>
       </c>
       <c r="D10">
         <f>C10/15</f>
-        <v>0.15</v>
+        <v>0.307333333333333</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11">
+        <v>24</v>
+      </c>
+      <c r="B11" s="20">
         <f>SUM(B9:B10)</f>
-        <v>1973</v>
+        <v>1440.84736312794</v>
       </c>
       <c r="C11">
         <f>AVERAGE(C9:C10)</f>
-        <v>1.29165</v>
+        <v>1.115</v>
       </c>
       <c r="D11">
         <f>AVERAGE(D9:D10)</f>
-        <v>0.08611</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.0743333333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <f>(B11-B4)/B11*100</f>
-        <v>35.2255448555499</v>
-      </c>
-      <c r="C13">
-        <f t="shared" ref="C13:D13" si="0">(C11-C4)/C11*100</f>
-        <v>63.8834049471606</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>63.4188828242945</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" t="s">
+      <c r="B18" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" t="s">
+      <c r="B23" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C23">
@@ -4203,7 +4981,7 @@
       </c>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" t="s">
+      <c r="B24" s="20" t="s">
         <v>18</v>
       </c>
       <c r="C24">
@@ -4215,4 +4993,699 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AK11"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B6 B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.13725490196078" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="12.8529411764706"/>
+    <col min="7" max="7" width="35.2156862745098" customWidth="1"/>
+    <col min="9" max="9" width="12.8529411764706"/>
+    <col min="12" max="12" width="12.8529411764706"/>
+    <col min="14" max="14" width="12.8529411764706"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.25" spans="1:1">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" ht="58.25" customHeight="1" spans="1:37">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+    </row>
+    <row r="3" ht="16" spans="1:37">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.392361111111111</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.409722222222222</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.440972222222222</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.46875</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.482638888888889</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.489583333333333</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.552083333333333</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0.572916666666667</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0.586805555555556</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0.604166666666667</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+    </row>
+    <row r="4" ht="16" spans="1:37">
+      <c r="A4" s="1"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6">
+        <v>0.381516203703704</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.397141203703704</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.414837962962963</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.44</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.45275462962963</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.474016203703704</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.49037037037037</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.537685185185185</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0.552349537037037</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.568287037037037</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0.589849537037037</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0.604861111111111</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0.633333333333333</v>
+      </c>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+    </row>
+    <row r="5" ht="15.3" spans="1:37">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7">
+        <v>23</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="14">
+        <v>25</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="14">
+        <v>22</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="14">
+        <v>56</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="14">
+        <v>58</v>
+      </c>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+    </row>
+    <row r="6" ht="16" spans="1:37">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9">
+        <f ca="1">SUM(C6:O6)</f>
+        <v>993.347525235939</v>
+      </c>
+      <c r="C6" s="10">
+        <f ca="1">C5^0.23*EXP(-0.2)+C5*2.92234^1.2*EXP(0.993)*1.4*RAND()</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="10">
+        <f ca="1" t="shared" ref="D6:O6" si="0">D5^0.23*EXP(-0.2)+D5*2.92234^1.2*EXP(0.993)*1.4*RAND()</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
+        <f ca="1" t="shared" si="0"/>
+        <v>70.8820818571632</v>
+      </c>
+      <c r="F6" s="10">
+        <f ca="1" t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
+        <f ca="1" t="shared" si="0"/>
+        <v>210.473946396709</v>
+      </c>
+      <c r="H6" s="10">
+        <f ca="1" t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="10">
+        <f ca="1" t="shared" si="0"/>
+        <v>103.369360812546</v>
+      </c>
+      <c r="J6" s="10">
+        <f ca="1" t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="10">
+        <f ca="1" t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="10">
+        <f ca="1" t="shared" si="0"/>
+        <v>131.85052357294</v>
+      </c>
+      <c r="M6" s="10">
+        <f ca="1" t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="10">
+        <f ca="1" t="shared" si="0"/>
+        <v>476.771612596581</v>
+      </c>
+      <c r="O6" s="10">
+        <f ca="1" t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+    </row>
+    <row r="7" ht="58.25" customHeight="1" spans="1:37">
+      <c r="A7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+    </row>
+    <row r="8" ht="16" spans="1:37">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.399305555555556</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.449305555555556</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0.604166666666667</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.628472222222222</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0.652777777777778</v>
+      </c>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+    </row>
+    <row r="9" ht="16" spans="1:37">
+      <c r="A9" s="11"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.404548611111111</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.429398148148148</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.457256944444444</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.465717592592593</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.482384259259259</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.501388888888889</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.524097222222222</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.541712962962963</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0.58162037037037</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0.602303240740741</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0.627083333333333</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0.654166666666667</v>
+      </c>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+    </row>
+    <row r="10" ht="16" spans="1:37">
+      <c r="A10" s="11"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="14">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="14">
+        <v>35</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="14">
+        <v>22</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="14">
+        <v>19</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="14">
+        <v>10</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="14">
+        <v>25</v>
+      </c>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+    </row>
+    <row r="11" ht="16" spans="1:37">
+      <c r="A11" s="15"/>
+      <c r="B11" s="9">
+        <f ca="1">SUM(C11:O11)</f>
+        <v>572.648208954275</v>
+      </c>
+      <c r="C11" s="10">
+        <f ca="1">C10^0.23*EXP(-0.2)+C10*2.92234^1.2*EXP(0.993)*1.4*RAND()</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="10">
+        <f ca="1" t="shared" ref="D11:O11" si="1">D10^0.23*EXP(-0.2)+D10*2.92234^1.2*EXP(0.993)*1.4*RAND()</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <f ca="1" t="shared" si="1"/>
+        <v>51.8286192418461</v>
+      </c>
+      <c r="F11" s="10">
+        <f ca="1" t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="10">
+        <f ca="1" t="shared" si="1"/>
+        <v>138.837745855365</v>
+      </c>
+      <c r="H11" s="10">
+        <f ca="1" t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="10">
+        <f ca="1" t="shared" si="1"/>
+        <v>255.357662770048</v>
+      </c>
+      <c r="J11" s="10">
+        <f ca="1" t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="10">
+        <f ca="1" t="shared" si="1"/>
+        <v>75.7947874948023</v>
+      </c>
+      <c r="L11" s="10">
+        <f ca="1" t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="10">
+        <f ca="1" t="shared" si="1"/>
+        <v>50.8293935922135</v>
+      </c>
+      <c r="N11" s="10">
+        <f ca="1" t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="10">
+        <f ca="1" t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B7:B8"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Bags and Trucks/TrackingTrucks.xlsx
+++ b/Bags and Trucks/TrackingTrucks.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18967" windowHeight="6996" activeTab="2"/>
+    <workbookView windowWidth="18967" windowHeight="6996" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Volume" sheetId="1" r:id="rId1"/>
     <sheet name="Delay" sheetId="2" r:id="rId2"/>
     <sheet name="Report" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Delay_Plot" sheetId="4" r:id="rId4"/>
+    <sheet name="3.1" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Volume!$A$1:$T$95</definedName>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="40">
   <si>
     <t>Stops</t>
   </si>
@@ -109,6 +110,24 @@
   </si>
   <si>
     <t>Avg. Độ Delay</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>TIme</t>
+  </si>
+  <si>
+    <t>Delay</t>
+  </si>
+  <si>
+    <t>RatioDelay</t>
+  </si>
+  <si>
+    <t>Dũng</t>
+  </si>
+  <si>
+    <t>Trường</t>
   </si>
   <si>
     <t>﻿</t>
@@ -218,17 +237,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="10">
+  <numFmts count="9">
     <numFmt numFmtId="176" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="177" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="179" formatCode="h:mm:ss;@"/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="177" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="182" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="183" formatCode="0.00_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="181" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="182" formatCode="h:mm:ss;@"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -311,6 +329,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -326,7 +351,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,6 +360,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,13 +382,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -363,7 +389,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -378,7 +412,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -387,7 +443,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,44 +459,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,19 +491,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,97 +515,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,7 +533,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,43 +665,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,6 +769,21 @@
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
@@ -802,35 +835,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -850,21 +859,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -872,15 +866,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -914,145 +899,178 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1062,7 +1080,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
@@ -1082,80 +1100,72 @@
     <xf numFmtId="35" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1335,10 +1345,10 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>961.518932703105</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>479.328430424837</c:v>
+                  <c:v>271</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1506,7 +1516,1650 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="en-US">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+              </a:rPr>
+              <a:t>tỉ lệ Độ trễ của TX Dũng </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="en-US">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.341941473865312"/>
+          <c:y val="0.0274373513810134"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Delay_Plot!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RatioDelay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Delay_Plot!$B$2:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss;@</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.391666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.409247685185185</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.440868055555556</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4515625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.478634259259259</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.495752314814815</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.539421296296296</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.555555555555556</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.577939814814815</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.592384259259259</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.606990740740741</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.628854166666667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.646076388888889</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Delay_Plot!$D$2:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.0666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.0666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.0666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.266666666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.533333333333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.266666666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.466666666666667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.533333333333333</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.266666666666667</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="944304133"/>
+        <c:axId val="874987872"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="944304133"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.35"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="h:mm:ss;@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="874987872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="874987872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="944304133"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="en-US">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+              </a:rPr>
+              <a:t>tỉ lệ Độ trễ của TX Trường</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="en-US">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.357214311606671"/>
+          <c:y val="0.0461457614574335"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Delay_Plot!$B$16:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss;@</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.396527777777778</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.429085648148148</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.457638888888889</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.482627314814815</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.482627314814815</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.518368055555556</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.536875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.585081018518519</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.604143518518519</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.632777777777778</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.651782407407407</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Delay_Plot!$D$16:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.266666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.13333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.26666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.266666666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.266666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.466666666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.133333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.0666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.133333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="944304133"/>
+        <c:axId val="874987872"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="944304133"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.35"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="h:mm:ss;@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="874987872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="874987872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="944304133"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2051,6 +3704,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2078,6 +4763,71 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>62230</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>55880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>554990</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4298315" y="240030"/>
+        <a:ext cx="5487670" cy="3636010"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>183515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>492760</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4236085" y="4418965"/>
+        <a:ext cx="5487670" cy="3636010"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2353,7 +5103,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="6.12745098039216" customWidth="1"/>
-    <col min="2" max="2" width="16.3725490196078" style="29" customWidth="1"/>
+    <col min="2" max="2" width="16.3725490196078" style="27" customWidth="1"/>
     <col min="3" max="3" width="6.75490196078431" customWidth="1"/>
     <col min="4" max="4" width="18.1274509803922" customWidth="1"/>
     <col min="5" max="5" width="10.3725490196078" customWidth="1"/>
@@ -2363,13 +5113,13 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -2380,16 +5130,16 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="27">
         <v>0.625</v>
       </c>
       <c r="C2">
         <v>440</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="43">
+      <c r="E2" s="41">
         <v>43826</v>
       </c>
     </row>
@@ -2397,7 +5147,7 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="27">
         <v>0.626388888888889</v>
       </c>
       <c r="C3">
@@ -2406,7 +5156,7 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="41">
         <v>43826</v>
       </c>
     </row>
@@ -2414,7 +5164,7 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="27">
         <v>43826.4743055556</v>
       </c>
       <c r="C4">
@@ -2423,7 +5173,7 @@
       <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="41">
         <v>43826</v>
       </c>
     </row>
@@ -2431,16 +5181,16 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="27">
         <v>0.586805555555556</v>
       </c>
       <c r="C5">
         <v>85</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="41">
         <v>43826</v>
       </c>
     </row>
@@ -2448,16 +5198,16 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="27">
         <v>0.434027777777778</v>
       </c>
       <c r="C6">
         <v>69</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="41">
         <v>43826</v>
       </c>
     </row>
@@ -2465,7 +5215,7 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="27">
         <v>43826.6784722222</v>
       </c>
       <c r="C7">
@@ -2474,7 +5224,7 @@
       <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="41">
         <v>43826</v>
       </c>
     </row>
@@ -2482,7 +5232,7 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="27">
         <v>0.395833333333333</v>
       </c>
       <c r="C8">
@@ -2491,7 +5241,7 @@
       <c r="D8" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="41">
         <v>43826</v>
       </c>
     </row>
@@ -2499,16 +5249,16 @@
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="27">
         <v>0.538194444444444</v>
       </c>
       <c r="C9">
         <v>40</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="41">
         <v>43826</v>
       </c>
     </row>
@@ -2516,16 +5266,16 @@
       <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="27">
         <v>0.475694444444444</v>
       </c>
       <c r="C10">
         <v>23</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="41">
         <v>43826</v>
       </c>
     </row>
@@ -2533,7 +5283,7 @@
       <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="27">
         <v>0.434027777777778</v>
       </c>
       <c r="C11">
@@ -2542,7 +5292,7 @@
       <c r="D11" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="41">
         <v>43826</v>
       </c>
     </row>
@@ -2550,16 +5300,16 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="27">
         <v>0.395833333333333</v>
       </c>
       <c r="C12">
         <v>14</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="41">
         <v>43826</v>
       </c>
     </row>
@@ -2567,7 +5317,7 @@
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="27">
         <v>0.544444444444444</v>
       </c>
       <c r="C13">
@@ -2576,7 +5326,7 @@
       <c r="D13" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="41">
         <v>43826</v>
       </c>
     </row>
@@ -2584,16 +5334,16 @@
       <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="27">
         <v>0.375</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="43">
+      <c r="E14" s="41">
         <v>43826</v>
       </c>
     </row>
@@ -2601,13 +5351,13 @@
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="27">
         <v>0.415972222222222</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E15" s="41">
         <v>43826</v>
       </c>
     </row>
@@ -2615,10 +5365,10 @@
       <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="41">
         <v>43826</v>
       </c>
     </row>
@@ -2626,10 +5376,10 @@
       <c r="A17" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="43">
+      <c r="E17" s="41">
         <v>43826</v>
       </c>
     </row>
@@ -2637,10 +5387,10 @@
       <c r="A18" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="41">
         <v>43826</v>
       </c>
     </row>
@@ -2648,10 +5398,10 @@
       <c r="A19" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="43">
+      <c r="E19" s="41">
         <v>43826</v>
       </c>
     </row>
@@ -2659,10 +5409,10 @@
       <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="43">
+      <c r="E20" s="41">
         <v>43826</v>
       </c>
     </row>
@@ -2670,10 +5420,10 @@
       <c r="A21" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="43">
+      <c r="E21" s="41">
         <v>43826</v>
       </c>
     </row>
@@ -2681,13 +5431,13 @@
       <c r="A22" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="29">
+      <c r="B22" s="27">
         <v>0.375694444444444</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="43">
+      <c r="E22" s="41">
         <v>43826</v>
       </c>
     </row>
@@ -2695,13 +5445,13 @@
       <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="29">
+      <c r="B23" s="27">
         <v>43826.4173611111</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="43">
+      <c r="E23" s="41">
         <v>43826</v>
       </c>
     </row>
@@ -2709,13 +5459,13 @@
       <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="29">
+      <c r="B24" s="27">
         <v>43826.4618055556</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="43">
+      <c r="E24" s="41">
         <v>43826</v>
       </c>
     </row>
@@ -2723,13 +5473,13 @@
       <c r="A25" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="27">
         <v>43826.5041666667</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="43">
+      <c r="E25" s="41">
         <v>43826</v>
       </c>
     </row>
@@ -2737,13 +5487,13 @@
       <c r="A26" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="29">
+      <c r="B26" s="27">
         <v>0.522222222222222</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="43">
+      <c r="E26" s="41">
         <v>43826</v>
       </c>
     </row>
@@ -2751,13 +5501,13 @@
       <c r="A27" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="29">
+      <c r="B27" s="27">
         <v>0.577777777777778</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="43">
+      <c r="E27" s="41">
         <v>43826</v>
       </c>
     </row>
@@ -2765,13 +5515,13 @@
       <c r="A28" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="29">
+      <c r="B28" s="27">
         <v>43826.5854166667</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="43">
+      <c r="E28" s="41">
         <v>43826</v>
       </c>
     </row>
@@ -2779,13 +5529,13 @@
       <c r="A29" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="29">
+      <c r="B29" s="27">
         <v>43826.6506944444</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="43">
+      <c r="E29" s="41">
         <v>43826</v>
       </c>
     </row>
@@ -2793,13 +5543,13 @@
       <c r="A30" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="29">
+      <c r="B30" s="27">
         <v>0.375</v>
       </c>
-      <c r="D30" s="42" t="s">
+      <c r="D30" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="43">
+      <c r="E30" s="41">
         <v>43827</v>
       </c>
     </row>
@@ -2807,16 +5557,16 @@
       <c r="A31" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="29">
+      <c r="B31" s="27">
         <v>0.394444444444444</v>
       </c>
       <c r="C31">
         <v>204</v>
       </c>
-      <c r="D31" s="42" t="s">
+      <c r="D31" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="43">
+      <c r="E31" s="41">
         <v>43827</v>
       </c>
     </row>
@@ -2824,13 +5574,13 @@
       <c r="A32" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="29">
+      <c r="B32" s="27">
         <v>0.406944444444444</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="43">
+      <c r="E32" s="41">
         <v>43827</v>
       </c>
     </row>
@@ -2838,16 +5588,16 @@
       <c r="A33" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="29">
+      <c r="B33" s="27">
         <v>0.434722222222222</v>
       </c>
       <c r="C33">
         <v>167</v>
       </c>
-      <c r="D33" s="42" t="s">
+      <c r="D33" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="43">
+      <c r="E33" s="41">
         <v>43827</v>
       </c>
     </row>
@@ -2855,13 +5605,13 @@
       <c r="A34" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="29">
+      <c r="B34" s="27">
         <v>0.460416666666667</v>
       </c>
-      <c r="D34" s="42" t="s">
+      <c r="D34" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="43">
+      <c r="E34" s="41">
         <v>43827</v>
       </c>
     </row>
@@ -2869,13 +5619,13 @@
       <c r="A35" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="29">
+      <c r="B35" s="27">
         <v>0.475694444444444</v>
       </c>
-      <c r="D35" s="42" t="s">
+      <c r="D35" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="43">
+      <c r="E35" s="41">
         <v>43827</v>
       </c>
     </row>
@@ -2883,13 +5633,13 @@
       <c r="A36" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="29">
+      <c r="B36" s="27">
         <v>0.488194444444444</v>
       </c>
-      <c r="D36" s="42" t="s">
+      <c r="D36" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="43">
+      <c r="E36" s="41">
         <v>43827</v>
       </c>
     </row>
@@ -2897,13 +5647,13 @@
       <c r="A37" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="29">
+      <c r="B37" s="27">
         <v>0.5375</v>
       </c>
-      <c r="D37" s="42" t="s">
+      <c r="D37" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="43">
+      <c r="E37" s="41">
         <v>43827</v>
       </c>
     </row>
@@ -2911,10 +5661,10 @@
       <c r="A38" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="42" t="s">
+      <c r="D38" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="43">
+      <c r="E38" s="41">
         <v>43827</v>
       </c>
     </row>
@@ -2922,16 +5672,16 @@
       <c r="A39" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="29">
+      <c r="B39" s="27">
         <v>0.582638888888889</v>
       </c>
       <c r="C39">
         <v>242</v>
       </c>
-      <c r="D39" s="42" t="s">
+      <c r="D39" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="43">
+      <c r="E39" s="41">
         <v>43827</v>
       </c>
     </row>
@@ -2939,13 +5689,13 @@
       <c r="A40" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="29">
+      <c r="B40" s="27">
         <v>0.0979166666666667</v>
       </c>
-      <c r="D40" s="42" t="s">
+      <c r="D40" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="43">
+      <c r="E40" s="41">
         <v>43827</v>
       </c>
     </row>
@@ -2953,16 +5703,16 @@
       <c r="A41" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="29">
+      <c r="B41" s="27">
         <v>0.632638888888889</v>
       </c>
       <c r="C41">
         <v>257</v>
       </c>
-      <c r="D41" s="42" t="s">
+      <c r="D41" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="43">
+      <c r="E41" s="41">
         <v>43827</v>
       </c>
     </row>
@@ -2970,10 +5720,10 @@
       <c r="A42" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="42" t="s">
+      <c r="D42" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E42" s="43">
+      <c r="E42" s="41">
         <v>43827</v>
       </c>
     </row>
@@ -2981,13 +5731,13 @@
       <c r="A43" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="29">
+      <c r="B43" s="27">
         <v>0.375694444444444</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="43">
+      <c r="E43" s="41">
         <v>43827</v>
       </c>
     </row>
@@ -2995,7 +5745,7 @@
       <c r="A44" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="29">
+      <c r="B44" s="27">
         <v>0.399305555555556</v>
       </c>
       <c r="C44">
@@ -3004,7 +5754,7 @@
       <c r="D44" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="43">
+      <c r="E44" s="41">
         <v>43827</v>
       </c>
     </row>
@@ -3012,13 +5762,13 @@
       <c r="A45" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="29">
+      <c r="B45" s="27">
         <v>0.421527777777778</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="43">
+      <c r="E45" s="41">
         <v>43827</v>
       </c>
     </row>
@@ -3026,7 +5776,7 @@
       <c r="A46" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="29">
+      <c r="B46" s="27">
         <v>0.447222222222222</v>
       </c>
       <c r="C46">
@@ -3035,7 +5785,7 @@
       <c r="D46" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="43">
+      <c r="E46" s="41">
         <v>43827</v>
       </c>
     </row>
@@ -3043,13 +5793,13 @@
       <c r="A47" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="29">
+      <c r="B47" s="27">
         <v>0.459722222222222</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="43">
+      <c r="E47" s="41">
         <v>43827</v>
       </c>
     </row>
@@ -3057,7 +5807,7 @@
       <c r="A48" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="29">
+      <c r="B48" s="27">
         <v>0.480555555555556</v>
       </c>
       <c r="C48">
@@ -3066,7 +5816,7 @@
       <c r="D48" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="43">
+      <c r="E48" s="41">
         <v>43827</v>
       </c>
     </row>
@@ -3074,13 +5824,13 @@
       <c r="A49" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="29">
+      <c r="B49" s="27">
         <v>0.502083333333333</v>
       </c>
       <c r="D49" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="43">
+      <c r="E49" s="41">
         <v>43827</v>
       </c>
     </row>
@@ -3088,13 +5838,13 @@
       <c r="A50" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="29">
+      <c r="B50" s="27">
         <v>0.522916666666667</v>
       </c>
       <c r="D50" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="43">
+      <c r="E50" s="41">
         <v>43827</v>
       </c>
     </row>
@@ -3102,13 +5852,13 @@
       <c r="A51" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="29">
+      <c r="B51" s="27">
         <v>0.540277777777778</v>
       </c>
       <c r="D51" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="43">
+      <c r="E51" s="41">
         <v>43827</v>
       </c>
     </row>
@@ -3116,7 +5866,7 @@
       <c r="A52" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="29">
+      <c r="B52" s="27">
         <v>0.576388888888889</v>
       </c>
       <c r="C52">
@@ -3125,7 +5875,7 @@
       <c r="D52" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="43">
+      <c r="E52" s="41">
         <v>43827</v>
       </c>
     </row>
@@ -3133,13 +5883,13 @@
       <c r="A53" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="29">
+      <c r="B53" s="27">
         <v>0.599305555555556</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
       </c>
-      <c r="E53" s="43">
+      <c r="E53" s="41">
         <v>43827</v>
       </c>
     </row>
@@ -3147,7 +5897,7 @@
       <c r="A54" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="29">
+      <c r="B54" s="27">
         <v>0.626388888888889</v>
       </c>
       <c r="C54">
@@ -3156,7 +5906,7 @@
       <c r="D54" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="43">
+      <c r="E54" s="41">
         <v>43827</v>
       </c>
     </row>
@@ -3164,13 +5914,13 @@
       <c r="A55" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="29">
+      <c r="B55" s="27">
         <v>0.648611111111111</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
       </c>
-      <c r="E55" s="43">
+      <c r="E55" s="41">
         <v>43827</v>
       </c>
     </row>
@@ -3181,7 +5931,7 @@
       <c r="D56" t="s">
         <v>8</v>
       </c>
-      <c r="E56" s="43">
+      <c r="E56" s="41">
         <v>43827</v>
       </c>
     </row>
@@ -3192,7 +5942,7 @@
       <c r="D57" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="43">
+      <c r="E57" s="41">
         <v>43827</v>
       </c>
     </row>
@@ -3203,7 +5953,7 @@
       <c r="D58" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="43">
+      <c r="E58" s="41">
         <v>43827</v>
       </c>
     </row>
@@ -3214,7 +5964,7 @@
       <c r="D59" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="43">
+      <c r="E59" s="41">
         <v>43827</v>
       </c>
     </row>
@@ -3225,7 +5975,7 @@
       <c r="D60" t="s">
         <v>8</v>
       </c>
-      <c r="E60" s="43">
+      <c r="E60" s="41">
         <v>43827</v>
       </c>
     </row>
@@ -3236,7 +5986,7 @@
       <c r="D61" t="s">
         <v>8</v>
       </c>
-      <c r="E61" s="43">
+      <c r="E61" s="41">
         <v>43827</v>
       </c>
     </row>
@@ -3244,13 +5994,13 @@
       <c r="A62" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="29">
+      <c r="B62" s="27">
         <v>0.375</v>
       </c>
-      <c r="D62" s="42" t="s">
+      <c r="D62" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E62" s="43">
+      <c r="E62" s="41">
         <v>43829</v>
       </c>
     </row>
@@ -3258,13 +6008,13 @@
       <c r="A63" t="s">
         <v>5</v>
       </c>
-      <c r="B63" s="29">
+      <c r="B63" s="27">
         <v>0.390972222222222</v>
       </c>
-      <c r="D63" s="42" t="s">
+      <c r="D63" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E63" s="43">
+      <c r="E63" s="41">
         <v>43829</v>
       </c>
     </row>
@@ -3272,13 +6022,13 @@
       <c r="A64" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="29">
+      <c r="B64" s="27">
         <v>0.413888888888889</v>
       </c>
-      <c r="D64" s="42" t="s">
+      <c r="D64" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E64" s="43">
+      <c r="E64" s="41">
         <v>43829</v>
       </c>
     </row>
@@ -3286,16 +6036,16 @@
       <c r="A65" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="29">
+      <c r="B65" s="27">
         <v>0.454166666666667</v>
       </c>
       <c r="C65">
         <v>192</v>
       </c>
-      <c r="D65" s="42" t="s">
+      <c r="D65" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E65" s="43">
+      <c r="E65" s="41">
         <v>43829</v>
       </c>
     </row>
@@ -3303,13 +6053,13 @@
       <c r="A66" t="s">
         <v>10</v>
       </c>
-      <c r="B66" s="29">
+      <c r="B66" s="27">
         <v>0.473611111111111</v>
       </c>
-      <c r="D66" s="42" t="s">
+      <c r="D66" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E66" s="43">
+      <c r="E66" s="41">
         <v>43829</v>
       </c>
     </row>
@@ -3317,16 +6067,16 @@
       <c r="A67" t="s">
         <v>5</v>
       </c>
-      <c r="B67" s="29">
+      <c r="B67" s="27">
         <v>0.488194444444444</v>
       </c>
       <c r="C67">
         <v>231</v>
       </c>
-      <c r="D67" s="42" t="s">
+      <c r="D67" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E67" s="43">
+      <c r="E67" s="41">
         <v>43829</v>
       </c>
     </row>
@@ -3334,13 +6084,13 @@
       <c r="A68" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="29">
+      <c r="B68" s="27">
         <v>0.502083333333333</v>
       </c>
-      <c r="D68" s="42" t="s">
+      <c r="D68" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E68" s="43">
+      <c r="E68" s="41">
         <v>43829</v>
       </c>
     </row>
@@ -3348,13 +6098,13 @@
       <c r="A69" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="29">
+      <c r="B69" s="27">
         <v>0.0444444444444444</v>
       </c>
-      <c r="D69" s="42" t="s">
+      <c r="D69" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E69" s="43">
+      <c r="E69" s="41">
         <v>43829</v>
       </c>
     </row>
@@ -3362,10 +6112,10 @@
       <c r="A70" t="s">
         <v>11</v>
       </c>
-      <c r="D70" s="42" t="s">
+      <c r="D70" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="43">
+      <c r="E70" s="41">
         <v>43829</v>
       </c>
     </row>
@@ -3373,13 +6123,13 @@
       <c r="A71" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="29">
+      <c r="B71" s="27">
         <v>0.473611111111111</v>
       </c>
-      <c r="D71" s="42" t="s">
+      <c r="D71" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="43">
+      <c r="E71" s="41">
         <v>43829</v>
       </c>
     </row>
@@ -3390,10 +6140,10 @@
       <c r="C72">
         <v>168</v>
       </c>
-      <c r="D72" s="42" t="s">
+      <c r="D72" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E72" s="43">
+      <c r="E72" s="41">
         <v>43829</v>
       </c>
     </row>
@@ -3401,13 +6151,13 @@
       <c r="A73" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="29">
+      <c r="B73" s="27">
         <v>0.605555555555556</v>
       </c>
-      <c r="D73" s="42" t="s">
+      <c r="D73" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E73" s="43">
+      <c r="E73" s="41">
         <v>43829</v>
       </c>
     </row>
@@ -3415,16 +6165,16 @@
       <c r="A74" t="s">
         <v>5</v>
       </c>
-      <c r="B74" s="29">
+      <c r="B74" s="27">
         <v>0.636805555555556</v>
       </c>
       <c r="C74">
         <v>427</v>
       </c>
-      <c r="D74" s="42" t="s">
+      <c r="D74" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="43">
+      <c r="E74" s="41">
         <v>43829</v>
       </c>
     </row>
@@ -3432,10 +6182,10 @@
       <c r="A75" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="42" t="s">
+      <c r="D75" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E75" s="43">
+      <c r="E75" s="41">
         <v>43829</v>
       </c>
     </row>
@@ -3443,13 +6193,13 @@
       <c r="A76" t="s">
         <v>10</v>
       </c>
-      <c r="B76" s="29">
+      <c r="B76" s="27">
         <v>0.668055555555556</v>
       </c>
-      <c r="D76" s="42" t="s">
+      <c r="D76" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E76" s="43">
+      <c r="E76" s="41">
         <v>43829</v>
       </c>
     </row>
@@ -3457,13 +6207,13 @@
       <c r="A77" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="29">
+      <c r="B77" s="27">
         <v>0.375</v>
       </c>
       <c r="D77" t="s">
         <v>8</v>
       </c>
-      <c r="E77" s="43">
+      <c r="E77" s="41">
         <v>43829</v>
       </c>
     </row>
@@ -3471,13 +6221,13 @@
       <c r="A78" t="s">
         <v>7</v>
       </c>
-      <c r="B78" s="29">
+      <c r="B78" s="27">
         <v>0.398611111111111</v>
       </c>
       <c r="D78" t="s">
         <v>8</v>
       </c>
-      <c r="E78" s="43">
+      <c r="E78" s="41">
         <v>43829</v>
       </c>
     </row>
@@ -3485,13 +6235,13 @@
       <c r="A79" t="s">
         <v>10</v>
       </c>
-      <c r="B79" s="29">
+      <c r="B79" s="27">
         <v>0.406944444444444</v>
       </c>
       <c r="D79" t="s">
         <v>8</v>
       </c>
-      <c r="E79" s="43">
+      <c r="E79" s="41">
         <v>43829</v>
       </c>
     </row>
@@ -3499,7 +6249,7 @@
       <c r="A80" t="s">
         <v>7</v>
       </c>
-      <c r="B80" s="29">
+      <c r="B80" s="27">
         <v>0.441666666666667</v>
       </c>
       <c r="C80">
@@ -3508,7 +6258,7 @@
       <c r="D80" t="s">
         <v>8</v>
       </c>
-      <c r="E80" s="43">
+      <c r="E80" s="41">
         <v>43829</v>
       </c>
     </row>
@@ -3516,13 +6266,13 @@
       <c r="A81" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="29">
+      <c r="B81" s="27">
         <v>0.464583333333333</v>
       </c>
       <c r="D81" t="s">
         <v>8</v>
       </c>
-      <c r="E81" s="43">
+      <c r="E81" s="41">
         <v>43829</v>
       </c>
     </row>
@@ -3530,7 +6280,7 @@
       <c r="A82" t="s">
         <v>7</v>
       </c>
-      <c r="B82" s="29">
+      <c r="B82" s="27">
         <v>0.474305555555556</v>
       </c>
       <c r="C82">
@@ -3539,7 +6289,7 @@
       <c r="D82" t="s">
         <v>8</v>
       </c>
-      <c r="E82" s="43">
+      <c r="E82" s="41">
         <v>43829</v>
       </c>
     </row>
@@ -3547,13 +6297,13 @@
       <c r="A83" t="s">
         <v>10</v>
       </c>
-      <c r="B83" s="29">
+      <c r="B83" s="27">
         <v>0.497222222222222</v>
       </c>
       <c r="D83" t="s">
         <v>8</v>
       </c>
-      <c r="E83" s="43">
+      <c r="E83" s="41">
         <v>43829</v>
       </c>
     </row>
@@ -3561,13 +6311,13 @@
       <c r="A84" t="s">
         <v>7</v>
       </c>
-      <c r="B84" s="29">
+      <c r="B84" s="27">
         <v>0.523611111111111</v>
       </c>
       <c r="D84" t="s">
         <v>8</v>
       </c>
-      <c r="E84" s="43">
+      <c r="E84" s="41">
         <v>43829</v>
       </c>
     </row>
@@ -3575,13 +6325,13 @@
       <c r="A85" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="29">
+      <c r="B85" s="27">
         <v>0.55</v>
       </c>
       <c r="D85" t="s">
         <v>8</v>
       </c>
-      <c r="E85" s="43">
+      <c r="E85" s="41">
         <v>43829</v>
       </c>
     </row>
@@ -3589,7 +6339,7 @@
       <c r="A86" t="s">
         <v>7</v>
       </c>
-      <c r="B86" s="29">
+      <c r="B86" s="27">
         <v>0.586111111111111</v>
       </c>
       <c r="C86">
@@ -3598,7 +6348,7 @@
       <c r="D86" t="s">
         <v>8</v>
       </c>
-      <c r="E86" s="43">
+      <c r="E86" s="41">
         <v>43829</v>
       </c>
     </row>
@@ -3606,13 +6356,13 @@
       <c r="A87" t="s">
         <v>10</v>
       </c>
-      <c r="B87" s="29">
+      <c r="B87" s="27">
         <v>0.601388888888889</v>
       </c>
       <c r="D87" t="s">
         <v>8</v>
       </c>
-      <c r="E87" s="43">
+      <c r="E87" s="41">
         <v>43829</v>
       </c>
     </row>
@@ -3620,7 +6370,7 @@
       <c r="A88" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="29">
+      <c r="B88" s="27">
         <v>0.627777777777778</v>
       </c>
       <c r="C88">
@@ -3629,7 +6379,7 @@
       <c r="D88" t="s">
         <v>8</v>
       </c>
-      <c r="E88" s="43">
+      <c r="E88" s="41">
         <v>43829</v>
       </c>
     </row>
@@ -3637,13 +6387,13 @@
       <c r="A89" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="29">
+      <c r="B89" s="27">
         <v>0.648611111111111</v>
       </c>
       <c r="D89" t="s">
         <v>8</v>
       </c>
-      <c r="E89" s="43">
+      <c r="E89" s="41">
         <v>43829</v>
       </c>
     </row>
@@ -3651,13 +6401,13 @@
       <c r="A90" t="s">
         <v>9</v>
       </c>
-      <c r="B90" s="29">
+      <c r="B90" s="27">
         <v>0.683333333333333</v>
       </c>
       <c r="D90" t="s">
         <v>8</v>
       </c>
-      <c r="E90" s="43">
+      <c r="E90" s="41">
         <v>43829</v>
       </c>
     </row>
@@ -3665,13 +6415,13 @@
       <c r="A91" t="s">
         <v>10</v>
       </c>
-      <c r="B91" s="29">
+      <c r="B91" s="27">
         <v>0.709722222222222</v>
       </c>
       <c r="D91" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="43">
+      <c r="E91" s="41">
         <v>43829</v>
       </c>
     </row>
@@ -3682,7 +6432,7 @@
       <c r="D92" t="s">
         <v>8</v>
       </c>
-      <c r="E92" s="43">
+      <c r="E92" s="41">
         <v>43829</v>
       </c>
     </row>
@@ -3693,7 +6443,7 @@
       <c r="D93" t="s">
         <v>8</v>
       </c>
-      <c r="E93" s="43">
+      <c r="E93" s="41">
         <v>43829</v>
       </c>
     </row>
@@ -3704,7 +6454,7 @@
       <c r="D94" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="43">
+      <c r="E94" s="41">
         <v>43829</v>
       </c>
     </row>
@@ -3715,7 +6465,7 @@
       <c r="D95" t="s">
         <v>8</v>
       </c>
-      <c r="E95" s="43">
+      <c r="E95" s="41">
         <v>43829</v>
       </c>
     </row>
@@ -3752,1029 +6502,1029 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.6274509803922" style="21" customWidth="1"/>
-    <col min="2" max="2" width="16.2549019607843" style="21" customWidth="1"/>
-    <col min="3" max="3" width="20.3725490196078" style="21" customWidth="1"/>
-    <col min="4" max="4" width="19.8725490196078" style="22" customWidth="1"/>
-    <col min="5" max="5" width="8.12745098039216" style="21" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="21"/>
+    <col min="1" max="1" width="21.6274509803922" style="19" customWidth="1"/>
+    <col min="2" max="2" width="16.2549019607843" style="19" customWidth="1"/>
+    <col min="3" max="3" width="20.3725490196078" style="19" customWidth="1"/>
+    <col min="4" max="4" width="19.8725490196078" style="20" customWidth="1"/>
+    <col min="5" max="5" width="8.12745098039216" style="19" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.25" spans="1:5">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" ht="26.2" hidden="1" spans="1:5">
-      <c r="A2" s="23">
+      <c r="A2" s="21">
         <v>43826.7475578704</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="23">
         <v>0.551388888888889</v>
       </c>
-      <c r="E2" s="37">
+      <c r="E2" s="35">
         <v>14</v>
       </c>
     </row>
     <row r="3" ht="26.2" hidden="1" spans="1:5">
-      <c r="A3" s="23">
+      <c r="A3" s="21">
         <v>43826.7197106481</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="24">
         <v>0.399305555555556</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="4" ht="26.2" hidden="1" spans="1:9">
-      <c r="A4" s="27">
+      <c r="A4" s="25">
         <v>43827.7084259259</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="26">
         <v>0.399305555555556</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="H4" s="28"/>
+      <c r="H4" s="26"/>
       <c r="I4"/>
     </row>
     <row r="5" ht="26.2" hidden="1" spans="1:5">
-      <c r="A5" s="23">
+      <c r="A5" s="21">
         <v>43826.7488657407</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="23">
         <v>0.5875</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="6" ht="26.2" hidden="1" spans="1:5">
-      <c r="A6" s="23">
+      <c r="A6" s="21">
         <v>43826.7193981481</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="23">
         <v>0.395833333333333</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="7" ht="26.2" hidden="1" spans="1:9">
-      <c r="A7" s="27">
+      <c r="A7" s="25">
         <v>43827.7092939815</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="26">
         <v>0.447222222222222</v>
       </c>
       <c r="E7">
         <v>-6</v>
       </c>
-      <c r="H7" s="28"/>
+      <c r="H7" s="26"/>
       <c r="I7"/>
     </row>
     <row r="8" ht="26.2" hidden="1" spans="1:5">
-      <c r="A8" s="23">
+      <c r="A8" s="21">
         <v>43826.7201736111</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="23">
         <v>0.434027777777778</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="9" ht="26.2" hidden="1" spans="1:5">
-      <c r="A9" s="23">
+      <c r="A9" s="21">
         <v>43826.7454050926</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="23">
         <v>0.475694444444444</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="10" ht="26.2" hidden="1" spans="1:5">
-      <c r="A10" s="23">
+      <c r="A10" s="21">
         <v>43826.7491203704</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="23">
         <v>0.624305555555556</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="35">
         <v>-1</v>
       </c>
     </row>
     <row r="11" ht="26.2" hidden="1" spans="1:5">
-      <c r="A11" s="23">
+      <c r="A11" s="21">
         <v>43826.7449189815</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="24">
         <v>0.449305555555556</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="36">
         <v>-3</v>
       </c>
     </row>
     <row r="12" ht="26.2" hidden="1" spans="1:5">
-      <c r="A12" s="23">
+      <c r="A12" s="21">
         <v>43826.7468287037</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="24">
         <v>0.522222222222222</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="36">
         <v>2</v>
       </c>
     </row>
     <row r="13" ht="26.2" hidden="1" spans="1:9">
-      <c r="A13" s="27">
+      <c r="A13" s="25">
         <v>43827.7109953704</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="26">
         <v>0.522916666666667</v>
       </c>
       <c r="E13">
         <v>3</v>
       </c>
-      <c r="H13" s="28"/>
+      <c r="H13" s="26"/>
       <c r="I13"/>
     </row>
     <row r="14" ht="26.2" hidden="1" spans="1:9">
-      <c r="A14" s="27">
+      <c r="A14" s="25">
         <v>43827.708900463</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="27">
         <v>0.434722222222222</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="H14" s="28"/>
+      <c r="H14" s="26"/>
       <c r="I14"/>
     </row>
     <row r="15" ht="26.2" hidden="1" spans="1:9">
-      <c r="A15" s="27">
+      <c r="A15" s="25">
         <v>43827.7113773148</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="26">
         <v>0.576388888888889</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="H15" s="28"/>
+      <c r="H15" s="26"/>
       <c r="I15"/>
     </row>
     <row r="16" ht="26.2" hidden="1" spans="1:9">
-      <c r="A16" s="27">
+      <c r="A16" s="25">
         <v>43827.7098263889</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="27">
         <v>0.475694444444444</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="H16" s="28"/>
+      <c r="H16" s="26"/>
       <c r="I16"/>
     </row>
     <row r="17" ht="26.2" hidden="1" spans="1:5">
-      <c r="A17" s="23">
+      <c r="A17" s="21">
         <v>43826.7483912037</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="24">
         <v>0.577777777777778</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="36">
         <v>2</v>
       </c>
     </row>
     <row r="18" ht="26.2" hidden="1" spans="1:9">
-      <c r="A18" s="27">
+      <c r="A18" s="25">
         <v>43827.7139814815</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="27">
         <v>0.5375</v>
       </c>
       <c r="E18">
         <v>-6</v>
       </c>
-      <c r="H18" s="28"/>
+      <c r="H18" s="26"/>
       <c r="I18"/>
     </row>
     <row r="19" ht="26.2" hidden="1" spans="1:5">
-      <c r="A19" s="23">
+      <c r="A19" s="21">
         <v>43826.7483912037</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="24">
         <v>0.626388888888889</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="36">
         <v>-8</v>
       </c>
     </row>
     <row r="20" ht="26.2" hidden="1" spans="1:9">
-      <c r="A20" s="27">
+      <c r="A20" s="25">
         <v>43827.7117592593</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="29">
+      <c r="D20" s="27">
         <v>0.582638888888889</v>
       </c>
       <c r="E20">
         <v>-1</v>
       </c>
-      <c r="H20" s="28"/>
+      <c r="H20" s="26"/>
       <c r="I20"/>
     </row>
     <row r="21" ht="26.2" hidden="1" spans="1:9">
-      <c r="A21" s="27">
+      <c r="A21" s="25">
         <v>43827.7119791667</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="27">
         <v>0.632638888888889</v>
       </c>
       <c r="E21">
         <v>11</v>
       </c>
-      <c r="H21" s="28"/>
+      <c r="H21" s="26"/>
       <c r="I21"/>
     </row>
     <row r="22" ht="26.95" hidden="1" spans="1:5">
-      <c r="A22" s="27">
+      <c r="A22" s="25">
         <v>43827.7113773148</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="28">
         <v>0.629861111111111</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="19">
         <v>-3</v>
       </c>
     </row>
     <row r="23" ht="26.95" hidden="1" spans="1:5">
-      <c r="A23" s="31">
+      <c r="A23" s="29">
         <v>43829.7984606481</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="33">
+      <c r="D23" s="31">
         <v>0.395833333333333</v>
       </c>
-      <c r="E23" s="39">
+      <c r="E23" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="24" ht="26.95" hidden="1" spans="1:5">
-      <c r="A24" s="31">
+      <c r="A24" s="29">
         <v>43829.7987152778</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="32">
         <v>0.399305555555556</v>
       </c>
-      <c r="E24" s="39">
+      <c r="E24" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="25" ht="26.95" hidden="1" spans="1:5">
-      <c r="A25" s="31">
+      <c r="A25" s="29">
         <v>43829.7989583333</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="33">
+      <c r="D25" s="31">
         <v>0.433333333333333</v>
       </c>
-      <c r="E25" s="39">
+      <c r="E25" s="37">
         <v>-1</v>
       </c>
     </row>
     <row r="26" ht="26.95" hidden="1" spans="1:5">
-      <c r="A26" s="31">
+      <c r="A26" s="29">
         <v>43829.7991319444</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D26" s="32">
         <v>0.45</v>
       </c>
-      <c r="E26" s="39">
+      <c r="E26" s="37">
         <v>-2</v>
       </c>
     </row>
     <row r="27" ht="26.95" hidden="1" spans="1:5">
-      <c r="A27" s="31">
+      <c r="A27" s="29">
         <v>43829.7993055556</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="33">
+      <c r="D27" s="31">
         <v>0.475694444444444</v>
       </c>
-      <c r="E27" s="39">
+      <c r="E27" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="28" ht="26.95" hidden="1" spans="1:5">
-      <c r="A28" s="31">
+      <c r="A28" s="29">
         <v>43829.7996180556</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="33">
+      <c r="D28" s="31">
         <v>0.5375</v>
       </c>
-      <c r="E28" s="39">
+      <c r="E28" s="37">
         <v>-6</v>
       </c>
     </row>
     <row r="29" ht="26.95" hidden="1" spans="1:5">
-      <c r="A29" s="31">
+      <c r="A29" s="29">
         <v>43829.7997916667</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="34">
+      <c r="D29" s="32">
         <v>0.580555555555556</v>
       </c>
-      <c r="E29" s="39">
+      <c r="E29" s="37">
         <v>6</v>
       </c>
     </row>
     <row r="30" ht="26.95" hidden="1" spans="1:5">
-      <c r="A30" s="31">
+      <c r="A30" s="29">
         <v>43829.8000347222</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="33">
+      <c r="D30" s="31">
         <v>0.588194444444444</v>
       </c>
-      <c r="E30" s="39">
+      <c r="E30" s="37">
         <v>7</v>
       </c>
     </row>
     <row r="31" ht="15.25" hidden="1" spans="1:5">
-      <c r="A31" s="31">
+      <c r="A31" s="29">
         <v>43829.8002199074</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="33">
+      <c r="D31" s="31">
         <v>0.626388888888889</v>
       </c>
-      <c r="E31" s="39">
+      <c r="E31" s="37">
         <v>2</v>
       </c>
     </row>
     <row r="32" ht="26.95" hidden="1" spans="1:5">
-      <c r="A32" s="31">
+      <c r="A32" s="29">
         <v>43829.8026736111</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="34">
+      <c r="D32" s="32">
         <v>0.635416666666667</v>
       </c>
-      <c r="E32" s="39">
+      <c r="E32" s="37">
         <v>5</v>
       </c>
     </row>
     <row r="33" ht="26.95" spans="1:5">
-      <c r="A33" s="35">
+      <c r="A33" s="33">
         <v>43830.3924537037</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="36">
+      <c r="D33" s="34">
         <v>43830.3924537037</v>
       </c>
-      <c r="E33" s="40">
+      <c r="E33" s="38">
         <v>-5</v>
       </c>
     </row>
     <row r="34" ht="26.95" spans="1:5">
-      <c r="A34" s="35">
+      <c r="A34" s="33">
         <v>43830.4119675926</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="36">
+      <c r="D34" s="34">
         <v>43830.4119675926</v>
       </c>
-      <c r="E34" s="40">
+      <c r="E34" s="38">
         <v>3</v>
       </c>
     </row>
     <row r="35" ht="26.95" spans="1:5">
-      <c r="A35" s="35">
+      <c r="A35" s="33">
         <v>43830.4389583333</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="36">
+      <c r="D35" s="34">
         <v>43830.4389583333</v>
       </c>
-      <c r="E35" s="40">
+      <c r="E35" s="38">
         <v>7</v>
       </c>
     </row>
     <row r="36" ht="26.95" spans="1:5">
-      <c r="A36" s="35">
+      <c r="A36" s="33">
         <v>43830.453587963</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="36">
+      <c r="D36" s="34">
         <v>43830.453587963</v>
       </c>
-      <c r="E36" s="40">
+      <c r="E36" s="38">
         <v>2</v>
       </c>
     </row>
     <row r="37" ht="26.95" spans="1:5">
-      <c r="A37" s="35">
+      <c r="A37" s="33">
         <v>43830.4764467593</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="36">
+      <c r="D37" s="34">
         <v>43830.4764467593</v>
       </c>
-      <c r="E37" s="40">
+      <c r="E37" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="38" ht="26.95" spans="1:5">
-      <c r="A38" s="35">
+      <c r="A38" s="33">
         <v>43830.4933680556</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="C38" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="36">
+      <c r="D38" s="34">
         <v>43830.4933680556</v>
       </c>
-      <c r="E38" s="40">
+      <c r="E38" s="38">
         <v>5</v>
       </c>
     </row>
     <row r="39" ht="26.95" spans="1:5">
-      <c r="A39" s="35">
+      <c r="A39" s="33">
         <v>43830.5429513889</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="36">
+      <c r="D39" s="34">
         <v>43830.5429513889</v>
       </c>
-      <c r="E39" s="40">
+      <c r="E39" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="40" ht="26.95" spans="1:5">
-      <c r="A40" s="35">
+      <c r="A40" s="33">
         <v>43830.5533217593</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="32" t="s">
+      <c r="C40" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="36">
+      <c r="D40" s="34">
         <v>43830.5533217593</v>
       </c>
-      <c r="E40" s="40">
+      <c r="E40" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="41" ht="26.95" spans="1:5">
-      <c r="A41" s="35">
+      <c r="A41" s="33">
         <v>43830.571724537</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C41" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="36">
+      <c r="D41" s="34">
         <v>43830.571724537</v>
       </c>
-      <c r="E41" s="40">
+      <c r="E41" s="38">
         <v>3</v>
       </c>
     </row>
     <row r="42" ht="26.95" spans="1:5">
-      <c r="A42" s="35">
+      <c r="A42" s="33">
         <v>43830.5893055556</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D42" s="36">
+      <c r="D42" s="34">
         <v>43830.5893055556</v>
       </c>
-      <c r="E42" s="40">
+      <c r="E42" s="38">
         <v>8</v>
       </c>
     </row>
     <row r="43" ht="26.95" spans="1:5">
-      <c r="A43" s="35">
+      <c r="A43" s="33">
         <v>43830.6083564815</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="C43" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="36">
+      <c r="D43" s="34">
         <v>43830.6083564815</v>
       </c>
-      <c r="E43" s="40">
+      <c r="E43" s="38">
         <v>6</v>
       </c>
     </row>
     <row r="44" ht="26.95" spans="1:5">
-      <c r="A44" s="35">
+      <c r="A44" s="33">
         <v>43830.6266550926</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="C44" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="36">
+      <c r="D44" s="34">
         <v>43830.6266550926</v>
       </c>
-      <c r="E44" s="40">
+      <c r="E44" s="38">
         <v>2</v>
       </c>
     </row>
     <row r="45" ht="26.95" spans="1:5">
-      <c r="A45" s="35">
+      <c r="A45" s="33">
         <v>43830.6544328704</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C45" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="36">
+      <c r="D45" s="34">
         <v>43830.6544328704</v>
       </c>
-      <c r="E45" s="40">
+      <c r="E45" s="38">
         <v>12</v>
       </c>
     </row>
     <row r="46" ht="26.95" hidden="1" spans="1:5">
-      <c r="A46" s="35">
+      <c r="A46" s="33">
         <v>43830.4050462963</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="36">
+      <c r="D46" s="34">
         <v>43830.4050462963</v>
       </c>
-      <c r="E46" s="40">
+      <c r="E46" s="38">
         <v>8</v>
       </c>
     </row>
     <row r="47" ht="26.95" hidden="1" spans="1:5">
-      <c r="A47" s="35">
+      <c r="A47" s="33">
         <v>43830.4287731481</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="32" t="s">
+      <c r="C47" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="36">
+      <c r="D47" s="34">
         <v>43830.4287731481</v>
       </c>
-      <c r="E47" s="40">
+      <c r="E47" s="38">
         <v>17</v>
       </c>
     </row>
     <row r="48" ht="26.95" hidden="1" spans="1:5">
-      <c r="A48" s="35">
+      <c r="A48" s="33">
         <v>43830.4606597222</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="32" t="s">
+      <c r="C48" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="36">
+      <c r="D48" s="34">
         <v>43830.4606597222</v>
       </c>
-      <c r="E48" s="40">
+      <c r="E48" s="38">
         <v>13</v>
       </c>
     </row>
     <row r="49" ht="26.95" hidden="1" spans="1:5">
-      <c r="A49" s="35">
+      <c r="A49" s="33">
         <v>43830.4819791667</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="32" t="s">
+      <c r="C49" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="36">
+      <c r="D49" s="34">
         <v>43830.4819791667</v>
       </c>
-      <c r="E49" s="40">
+      <c r="E49" s="38">
         <v>4</v>
       </c>
     </row>
     <row r="50" ht="26.95" hidden="1" spans="1:5">
-      <c r="A50" s="35">
+      <c r="A50" s="33">
         <v>43830.5316898148</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C50" s="32" t="s">
+      <c r="C50" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="36">
+      <c r="D50" s="34">
         <v>43830.5316898148</v>
       </c>
-      <c r="E50" s="40">
+      <c r="E50" s="38">
         <v>15</v>
       </c>
     </row>
     <row r="51" ht="26.95" hidden="1" spans="1:5">
-      <c r="A51" s="35">
+      <c r="A51" s="33">
         <v>43830.5623148148</v>
       </c>
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="C51" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D51" s="36">
+      <c r="D51" s="34">
         <v>43830.5623148148</v>
       </c>
-      <c r="E51" s="40">
+      <c r="E51" s="38">
         <v>19</v>
       </c>
     </row>
     <row r="52" ht="26.95" hidden="1" spans="1:5">
-      <c r="A52" s="35">
+      <c r="A52" s="33">
         <v>43830.5897800926</v>
       </c>
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C52" s="32" t="s">
+      <c r="C52" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="36">
+      <c r="D52" s="34">
         <v>43830.5897800926</v>
       </c>
-      <c r="E52" s="40">
+      <c r="E52" s="38">
         <v>19</v>
       </c>
     </row>
     <row r="53" ht="26.95" hidden="1" spans="1:5">
-      <c r="A53" s="35">
+      <c r="A53" s="33">
         <v>43830.6128356481</v>
       </c>
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C53" s="32" t="s">
+      <c r="C53" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="36">
+      <c r="D53" s="34">
         <v>43830.6128356481</v>
       </c>
-      <c r="E53" s="40">
+      <c r="E53" s="38">
         <v>12</v>
       </c>
     </row>
     <row r="54" ht="26.95" hidden="1" spans="1:5">
-      <c r="A54" s="35">
+      <c r="A54" s="33">
         <v>43830.6307523148</v>
       </c>
-      <c r="B54" s="24" t="s">
+      <c r="B54" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="32" t="s">
+      <c r="C54" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="36">
+      <c r="D54" s="34">
         <v>43830.6307523148</v>
       </c>
-      <c r="E54" s="40">
+      <c r="E54" s="38">
         <v>-2</v>
       </c>
     </row>
     <row r="55" ht="26.95" hidden="1" spans="1:5">
-      <c r="A55" s="35">
+      <c r="A55" s="33">
         <v>43830.6602662037</v>
       </c>
-      <c r="B55" s="24" t="s">
+      <c r="B55" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="32" t="s">
+      <c r="C55" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="36">
+      <c r="D55" s="34">
         <v>43830.6602662037</v>
       </c>
-      <c r="E55" s="40">
+      <c r="E55" s="38">
         <v>5</v>
       </c>
     </row>
     <row r="56" ht="26.95" hidden="1" spans="1:5">
-      <c r="A56" s="35">
+      <c r="A56" s="33">
         <v>43830.6799768519</v>
       </c>
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C56" s="32" t="s">
+      <c r="C56" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D56" s="36">
+      <c r="D56" s="34">
         <v>43830.6799768519</v>
       </c>
-      <c r="E56" s="40">
+      <c r="E56" s="38">
         <v>4</v>
       </c>
     </row>
     <row r="57" ht="26.95" hidden="1" spans="1:5">
-      <c r="A57" s="35">
+      <c r="A57" s="33">
         <v>43830.6922569444</v>
       </c>
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C57" s="32" t="s">
+      <c r="C57" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D57" s="36">
+      <c r="D57" s="34">
         <v>43830.6922569444</v>
       </c>
-      <c r="E57" s="40">
+      <c r="E57" s="38">
         <v>14</v>
       </c>
     </row>
     <row r="58" ht="26.95" hidden="1" spans="1:5">
-      <c r="A58" s="35">
+      <c r="A58" s="33">
         <v>43830.7236342593</v>
       </c>
-      <c r="B58" s="24" t="s">
+      <c r="B58" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C58" s="32" t="s">
+      <c r="C58" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="36">
+      <c r="D58" s="34">
         <v>43830.7236342593</v>
       </c>
-      <c r="E58" s="40">
+      <c r="E58" s="38">
         <v>3</v>
       </c>
     </row>
     <row r="59" ht="26.95" hidden="1" spans="1:5">
-      <c r="A59" s="35">
+      <c r="A59" s="33">
         <v>43830.7426736111</v>
       </c>
-      <c r="B59" s="24" t="s">
+      <c r="B59" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="32" t="s">
+      <c r="C59" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="36">
+      <c r="D59" s="34">
         <v>43830.7426736111</v>
       </c>
-      <c r="E59" s="40">
+      <c r="E59" s="38">
         <v>-9</v>
       </c>
     </row>
@@ -4803,14 +7553,14 @@
   <sheetPr/>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="34.5" customWidth="1"/>
-    <col min="2" max="2" width="19.2549019607843" style="20" customWidth="1"/>
+    <col min="2" max="2" width="19.2549019607843" style="18" customWidth="1"/>
     <col min="3" max="3" width="22.1274509803922" customWidth="1"/>
     <col min="4" max="4" width="30.0882352941176" customWidth="1"/>
   </cols>
@@ -4819,7 +7569,7 @@
       <c r="A1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C1" t="s">
@@ -4833,7 +7583,7 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="18">
         <v>671</v>
       </c>
       <c r="C2">
@@ -4847,7 +7597,7 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="18">
         <v>607</v>
       </c>
       <c r="C3">
@@ -4861,7 +7611,7 @@
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="18">
         <f>SUM(B2:B3)</f>
         <v>1278</v>
       </c>
@@ -4878,7 +7628,7 @@
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
@@ -4892,47 +7642,47 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="20">
-        <v>961.518932703105</v>
+      <c r="B9" s="18">
+        <v>245</v>
       </c>
       <c r="C9">
-        <v>-2.38</v>
+        <v>0.08</v>
       </c>
       <c r="D9">
         <f>C9/15</f>
-        <v>-0.158666666666667</v>
+        <v>0.00533333333333333</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="20">
-        <v>479.328430424837</v>
+      <c r="B10" s="18">
+        <v>271</v>
       </c>
       <c r="C10">
-        <v>4.61</v>
+        <v>4.75</v>
       </c>
       <c r="D10">
         <f>C10/15</f>
-        <v>0.307333333333333</v>
+        <v>0.316666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="18">
         <f>SUM(B9:B10)</f>
-        <v>1440.84736312794</v>
+        <v>516</v>
       </c>
       <c r="C11">
         <f>AVERAGE(C9:C10)</f>
-        <v>1.115</v>
+        <v>2.415</v>
       </c>
       <c r="D11">
         <f>AVERAGE(D9:D10)</f>
-        <v>0.0743333333333333</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -4941,7 +7691,7 @@
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C18" t="s">
@@ -4952,17 +7702,17 @@
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C22" t="s">
@@ -4973,7 +7723,7 @@
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C23">
@@ -4981,7 +7731,7 @@
       </c>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C24">
@@ -4998,32 +7748,457 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.13725490196078" defaultRowHeight="14.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="12.8529411764706"/>
+    <col min="2" max="2" width="12.8529411764706" style="17"/>
+    <col min="3" max="3" width="12.8529411764706"/>
+    <col min="4" max="4" width="13.9901960784314"/>
+    <col min="5" max="13" width="12.8529411764706"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>C2/15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="17">
+        <v>0.391666666666667</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D27" si="0">C3/15</f>
+        <v>-0.0666666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="17">
+        <v>0.409247685185185</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>-0.0666666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="17">
+        <v>0.440868055555556</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>-0.0666666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="17">
+        <v>0.4515625</v>
+      </c>
+      <c r="C6">
+        <v>-25</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>-1.66666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="17">
+        <v>0.478634259259259</v>
+      </c>
+      <c r="C7">
+        <v>-4</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>-0.266666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="17">
+        <v>0.495752314814815</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.533333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="17">
+        <v>0.539421296296296</v>
+      </c>
+      <c r="C9">
+        <v>-4</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>-0.266666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="17">
+        <v>0.555555555555556</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="17">
+        <v>0.577939814814815</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.466666666666667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="17">
+        <v>0.592384259259259</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.533333333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="17">
+        <v>0.606990740740741</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.266666666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="17">
+        <v>0.628854166666667</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="17">
+        <v>0.646076388888889</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="17">
+        <v>0.396527777777778</v>
+      </c>
+      <c r="C17">
+        <v>-4</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>-0.266666666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="17">
+        <v>0.429085648148148</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>1.13333333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="17">
+        <v>0.457638888888889</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="17">
+        <v>0.482627314814815</v>
+      </c>
+      <c r="C20">
+        <v>34</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>2.26666666666667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="17">
+        <v>0.482627314814815</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0.266666666666667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="17">
+        <v>0.518368055555556</v>
+      </c>
+      <c r="C22">
+        <v>-4</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>-0.266666666666667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="17">
+        <v>0.536875</v>
+      </c>
+      <c r="C23">
+        <v>-7</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>-0.466666666666667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="17">
+        <v>0.585081018518519</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0.133333333333333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="17">
+        <v>0.604143518518519</v>
+      </c>
+      <c r="C25">
+        <v>-1</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>-0.0666666666666667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="17">
+        <v>0.632777777777778</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="17">
+        <v>0.651782407407407</v>
+      </c>
+      <c r="C27">
+        <v>-2</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>-0.133333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AK11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B6 B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13725490196078" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="12.8529411764706"/>
-    <col min="7" max="7" width="35.2156862745098" customWidth="1"/>
-    <col min="9" max="9" width="12.8529411764706"/>
-    <col min="12" max="12" width="12.8529411764706"/>
-    <col min="14" max="14" width="12.8529411764706"/>
+    <col min="3" max="12" width="12.8529411764706"/>
+    <col min="13" max="13" width="11.7058823529412"/>
+    <col min="14" max="21" width="12.8529411764706"/>
+    <col min="22" max="22" width="11.7058823529412"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.25" spans="1:1">
+    <row r="1" ht="15" customHeight="1" spans="1:1">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" ht="58.25" customHeight="1" spans="1:37">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
@@ -5031,61 +8206,61 @@
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="12" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="14" t="s">
         <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="12" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="16" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="7"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
     </row>
     <row r="3" ht="16" spans="1:37">
       <c r="A3" s="1"/>
@@ -5129,28 +8304,28 @@
       <c r="O3" s="4">
         <v>0.625</v>
       </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="7"/>
-      <c r="AJ3" s="7"/>
-      <c r="AK3" s="7"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
     </row>
     <row r="4" ht="16" spans="1:37">
       <c r="A4" s="1"/>
@@ -5194,231 +8369,189 @@
       <c r="O4" s="6">
         <v>0.633333333333333</v>
       </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7"/>
-      <c r="AK4" s="7"/>
-    </row>
-    <row r="5" ht="15.3" spans="1:37">
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+    </row>
+    <row r="5" ht="24.7" customHeight="1" spans="1:37">
       <c r="A5" s="1"/>
       <c r="B5" s="5"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7">
-        <v>23</v>
+        <v>275</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="14">
-        <v>25</v>
+      <c r="G5" s="7">
+        <v>39</v>
       </c>
       <c r="H5" s="7"/>
-      <c r="I5" s="14">
-        <v>22</v>
+      <c r="I5" s="7">
+        <v>257</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
-      <c r="L5" s="14">
-        <v>56</v>
+      <c r="L5" s="7">
+        <v>490</v>
       </c>
       <c r="M5" s="7"/>
-      <c r="N5" s="14">
-        <v>58</v>
+      <c r="N5" s="7">
+        <v>471</v>
       </c>
       <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
-      <c r="AK5" s="7"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="15"/>
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="15"/>
     </row>
     <row r="6" ht="16" spans="1:37">
       <c r="A6" s="8"/>
-      <c r="B6" s="9">
-        <f ca="1">SUM(C6:O6)</f>
-        <v>993.347525235939</v>
-      </c>
-      <c r="C6" s="10">
-        <f ca="1">C5^0.23*EXP(-0.2)+C5*2.92234^1.2*EXP(0.993)*1.4*RAND()</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="10">
-        <f ca="1" t="shared" ref="D6:O6" si="0">D5^0.23*EXP(-0.2)+D5*2.92234^1.2*EXP(0.993)*1.4*RAND()</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="10">
-        <f ca="1" t="shared" si="0"/>
-        <v>70.8820818571632</v>
-      </c>
-      <c r="F6" s="10">
-        <f ca="1" t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="10">
-        <f ca="1" t="shared" si="0"/>
-        <v>210.473946396709</v>
-      </c>
-      <c r="H6" s="10">
-        <f ca="1" t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="10">
-        <f ca="1" t="shared" si="0"/>
-        <v>103.369360812546</v>
-      </c>
-      <c r="J6" s="10">
-        <f ca="1" t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="10">
-        <f ca="1" t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="10">
-        <f ca="1" t="shared" si="0"/>
-        <v>131.85052357294</v>
-      </c>
-      <c r="M6" s="10">
-        <f ca="1" t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="10">
-        <f ca="1" t="shared" si="0"/>
-        <v>476.771612596581</v>
-      </c>
-      <c r="O6" s="10">
-        <f ca="1" t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="7"/>
-      <c r="AK6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
     </row>
     <row r="7" ht="58.25" customHeight="1" spans="1:37">
-      <c r="A7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="A7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="N7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="17" t="s">
+      <c r="O7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="7"/>
-      <c r="AK7" s="7"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="15"/>
+      <c r="AI7" s="15"/>
+      <c r="AJ7" s="15"/>
+      <c r="AK7" s="15"/>
     </row>
     <row r="8" ht="16" spans="1:37">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="4">
         <v>0.375</v>
       </c>
@@ -5458,31 +8591,31 @@
       <c r="O8" s="4">
         <v>0.652777777777778</v>
       </c>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="7"/>
-      <c r="AJ8" s="7"/>
-      <c r="AK8" s="7"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="15"/>
+      <c r="AI8" s="15"/>
+      <c r="AJ8" s="15"/>
+      <c r="AK8" s="15"/>
     </row>
     <row r="9" ht="16" spans="1:37">
-      <c r="A9" s="11"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="5"/>
       <c r="C9" s="4">
         <v>0.375</v>
@@ -5523,161 +8656,79 @@
       <c r="O9" s="6">
         <v>0.654166666666667</v>
       </c>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="7"/>
-      <c r="AK9" s="7"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="15"/>
     </row>
     <row r="10" ht="16" spans="1:37">
-      <c r="A10" s="11"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="14">
-        <v>0</v>
-      </c>
+      <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="14">
-        <v>35</v>
+      <c r="E10" s="7">
+        <v>333</v>
       </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="14">
-        <v>22</v>
+      <c r="G10" s="7">
+        <v>116</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="14">
-        <v>19</v>
+      <c r="I10" s="7">
+        <v>153</v>
       </c>
       <c r="J10" s="7"/>
-      <c r="K10" s="14">
-        <v>10</v>
+      <c r="K10" s="7">
+        <v>113</v>
       </c>
       <c r="L10" s="7"/>
-      <c r="M10" s="14">
-        <v>25</v>
+      <c r="M10" s="7">
+        <v>7</v>
       </c>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="7"/>
-      <c r="AK10" s="7"/>
-    </row>
-    <row r="11" ht="16" spans="1:37">
-      <c r="A11" s="15"/>
-      <c r="B11" s="9">
-        <f ca="1">SUM(C11:O11)</f>
-        <v>572.648208954275</v>
-      </c>
-      <c r="C11" s="10">
-        <f ca="1">C10^0.23*EXP(-0.2)+C10*2.92234^1.2*EXP(0.993)*1.4*RAND()</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="10">
-        <f ca="1" t="shared" ref="D11:O11" si="1">D10^0.23*EXP(-0.2)+D10*2.92234^1.2*EXP(0.993)*1.4*RAND()</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="10">
-        <f ca="1" t="shared" si="1"/>
-        <v>51.8286192418461</v>
-      </c>
-      <c r="F11" s="10">
-        <f ca="1" t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="10">
-        <f ca="1" t="shared" si="1"/>
-        <v>138.837745855365</v>
-      </c>
-      <c r="H11" s="10">
-        <f ca="1" t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="10">
-        <f ca="1" t="shared" si="1"/>
-        <v>255.357662770048</v>
-      </c>
-      <c r="J11" s="10">
-        <f ca="1" t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="10">
-        <f ca="1" t="shared" si="1"/>
-        <v>75.7947874948023</v>
-      </c>
-      <c r="L11" s="10">
-        <f ca="1" t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="10">
-        <f ca="1" t="shared" si="1"/>
-        <v>50.8293935922135</v>
-      </c>
-      <c r="N11" s="10">
-        <f ca="1" t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="10">
-        <f ca="1" t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="7"/>
-      <c r="AJ11" s="7"/>
-      <c r="AK11" s="7"/>
-    </row>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="15"/>
+    </row>
+    <row r="11" ht="15.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
